--- a/Testcase_eazysell.xlsx
+++ b/Testcase_eazysell.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="73">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>Đăng ký tài khoản thành công</t>
+  </si>
+  <si>
+    <t>1.Mở website: http://bachhoa.test:8080/
+2.Nhấn đăng ký
+3.Nhập mật khẩu:123
+4. Nhấn nút đăng nhập</t>
   </si>
 </sst>
 </file>
@@ -1537,6 +1543,12 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1581,20 +1593,14 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1861,13 +1867,13 @@
     <row r="2" spans="1:26" ht="53.25" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="144"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -1921,11 +1927,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1957,9 +1963,9 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="144"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1986,12 +1992,12 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="152"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -2018,10 +2024,10 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="155"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -29898,15 +29904,15 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="161"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="163"/>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
@@ -29959,20 +29965,20 @@
       <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="154" t="str">
+      <c r="C3" s="156" t="str">
         <f>Cover!C4</f>
         <v>Phần mềm SD</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="155" t="s">
+      <c r="D3" s="146"/>
+      <c r="E3" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="162" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="164" t="str">
         <f>Cover!G4</f>
         <v>Trịnh Quang Xuân Đức</v>
       </c>
-      <c r="H3" s="144"/>
+      <c r="H3" s="146"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
@@ -29997,14 +30003,14 @@
       <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="155" t="s">
+      <c r="C4" s="165"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="144"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -30029,17 +30035,17 @@
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="155" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="144"/>
-      <c r="G5" s="156">
+      <c r="F5" s="146"/>
+      <c r="G5" s="158">
         <f ca="1">NOW()</f>
-        <v>45226.456197800922</v>
-      </c>
-      <c r="H5" s="157"/>
+        <v>45227.374748263886</v>
+      </c>
+      <c r="H5" s="159"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -30064,12 +30070,12 @@
       <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -58027,8 +58033,8 @@
   </sheetPr>
   <dimension ref="A1:Z856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -58050,12 +58056,12 @@
       <c r="A1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="164"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
       <c r="H1" s="55"/>
@@ -58082,12 +58088,12 @@
       <c r="A2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="59"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
@@ -58114,12 +58120,12 @@
       <c r="A3" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="59"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
@@ -58394,7 +58400,7 @@
       <c r="Z10" s="123"/>
     </row>
     <row r="11" spans="1:26" ht="51">
-      <c r="A11" s="167" t="str">
+      <c r="A11" s="142" t="str">
         <f>IF(AND(E11=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E9) +1,"##")&amp;"]")</f>
         <v>[Eazysell-2]</v>
       </c>
@@ -58407,7 +58413,7 @@
       <c r="D11" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="168" t="s">
+      <c r="E11" s="143" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="140" t="s">
@@ -58438,7 +58444,7 @@
       <c r="Z11" s="80"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="167" t="str">
+      <c r="A12" s="142" t="str">
         <f>IF(AND(E12=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E10) +1,"##")&amp;"]")</f>
         <v>[Eazysell-2]</v>
       </c>
@@ -58451,7 +58457,7 @@
       <c r="D12" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="168" t="s">
+      <c r="E12" s="143" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="140" t="s">
@@ -58465,7 +58471,7 @@
       <c r="I12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="167" t="str">
+      <c r="A13" s="142" t="str">
         <f>IF(AND(E13=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E11) +1,"##")&amp;"]")</f>
         <v>[Eazysell-3]</v>
       </c>
@@ -58478,7 +58484,7 @@
       <c r="D13" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="168" t="s">
+      <c r="E13" s="143" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="140" t="s">
@@ -58522,7 +58528,7 @@
       <c r="Z14" s="123"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="167" t="str">
+      <c r="A15" s="142" t="str">
         <f>IF(AND(E15=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E13) +1,"##")&amp;"]")</f>
         <v/>
       </c>
@@ -58532,8 +58538,10 @@
       <c r="C15" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="168"/>
+      <c r="D15" s="139" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="143"/>
       <c r="F15" s="140" t="s">
         <v>18</v>
       </c>
@@ -58545,14 +58553,14 @@
       <c r="I15" s="141"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="167" t="str">
+      <c r="A16" s="142" t="str">
         <f>IF(AND(E16=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E14) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B16" s="138"/>
       <c r="C16" s="138"/>
       <c r="D16" s="139"/>
-      <c r="E16" s="168"/>
+      <c r="E16" s="143"/>
       <c r="F16" s="140" t="s">
         <v>18</v>
       </c>
@@ -58564,14 +58572,14 @@
       <c r="I16" s="141"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A17" s="167" t="str">
+      <c r="A17" s="142" t="str">
         <f>IF(AND(E17=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E15) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B17" s="138"/>
       <c r="C17" s="138"/>
       <c r="D17" s="139"/>
-      <c r="E17" s="168"/>
+      <c r="E17" s="143"/>
       <c r="F17" s="140" t="s">
         <v>18</v>
       </c>
@@ -58583,14 +58591,14 @@
       <c r="I17" s="141"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A18" s="167" t="str">
+      <c r="A18" s="142" t="str">
         <f>IF(AND(E18=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E16) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B18" s="138"/>
       <c r="C18" s="138"/>
       <c r="D18" s="139"/>
-      <c r="E18" s="168"/>
+      <c r="E18" s="143"/>
       <c r="F18" s="140" t="s">
         <v>18</v>
       </c>
@@ -58602,14 +58610,14 @@
       <c r="I18" s="141"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A19" s="167" t="str">
+      <c r="A19" s="142" t="str">
         <f>IF(AND(E19=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E17) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B19" s="138"/>
       <c r="C19" s="138"/>
       <c r="D19" s="139"/>
-      <c r="E19" s="168"/>
+      <c r="E19" s="143"/>
       <c r="F19" s="140" t="s">
         <v>18</v>
       </c>
@@ -58621,14 +58629,14 @@
       <c r="I19" s="141"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A20" s="167" t="str">
+      <c r="A20" s="142" t="str">
         <f>IF(AND(E20=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E18) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B20" s="138"/>
       <c r="C20" s="138"/>
       <c r="D20" s="139"/>
-      <c r="E20" s="168"/>
+      <c r="E20" s="143"/>
       <c r="F20" s="140" t="s">
         <v>18</v>
       </c>
@@ -58640,14 +58648,14 @@
       <c r="I20" s="141"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A21" s="167" t="str">
+      <c r="A21" s="142" t="str">
         <f>IF(AND(E21=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E19) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B21" s="138"/>
       <c r="C21" s="138"/>
       <c r="D21" s="139"/>
-      <c r="E21" s="168"/>
+      <c r="E21" s="143"/>
       <c r="F21" s="140" t="s">
         <v>18</v>
       </c>
@@ -58659,14 +58667,14 @@
       <c r="I21" s="141"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A22" s="167" t="str">
+      <c r="A22" s="142" t="str">
         <f>IF(AND(E22=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E20) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B22" s="138"/>
       <c r="C22" s="138"/>
       <c r="D22" s="139"/>
-      <c r="E22" s="168"/>
+      <c r="E22" s="143"/>
       <c r="F22" s="140" t="s">
         <v>18</v>
       </c>
@@ -58678,14 +58686,14 @@
       <c r="I22" s="141"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A23" s="167" t="str">
+      <c r="A23" s="142" t="str">
         <f>IF(AND(E23=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E21) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B23" s="138"/>
       <c r="C23" s="138"/>
       <c r="D23" s="139"/>
-      <c r="E23" s="168"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="140" t="s">
         <v>18</v>
       </c>
@@ -58697,14 +58705,14 @@
       <c r="I23" s="141"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A24" s="167" t="str">
+      <c r="A24" s="142" t="str">
         <f>IF(AND(E24=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E22) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B24" s="138"/>
       <c r="C24" s="138"/>
       <c r="D24" s="139"/>
-      <c r="E24" s="168"/>
+      <c r="E24" s="143"/>
       <c r="F24" s="140" t="s">
         <v>18</v>
       </c>
@@ -58716,14 +58724,14 @@
       <c r="I24" s="141"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A25" s="167" t="str">
+      <c r="A25" s="142" t="str">
         <f>IF(AND(E25=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E23) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B25" s="138"/>
       <c r="C25" s="138"/>
       <c r="D25" s="139"/>
-      <c r="E25" s="168"/>
+      <c r="E25" s="143"/>
       <c r="F25" s="140" t="s">
         <v>18</v>
       </c>
@@ -58735,14 +58743,14 @@
       <c r="I25" s="141"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A26" s="167" t="str">
+      <c r="A26" s="142" t="str">
         <f>IF(AND(E26=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E24) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B26" s="138"/>
       <c r="C26" s="138"/>
       <c r="D26" s="139"/>
-      <c r="E26" s="168"/>
+      <c r="E26" s="143"/>
       <c r="F26" s="140" t="s">
         <v>18</v>
       </c>
@@ -58754,33 +58762,33 @@
       <c r="I26" s="141"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A27" s="167" t="str">
+      <c r="A27" s="142" t="str">
         <f>IF(AND(E27=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E25) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B27" s="138"/>
       <c r="C27" s="138"/>
       <c r="D27" s="139"/>
-      <c r="E27" s="168"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="140" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="137"/>
       <c r="H27" s="140">
-        <f t="shared" ref="H12:H75" si="1">B19</f>
+        <f t="shared" ref="H27:H75" si="1">B19</f>
         <v>0</v>
       </c>
       <c r="I27" s="141"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A28" s="167" t="str">
+      <c r="A28" s="142" t="str">
         <f>IF(AND(E28=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E26) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B28" s="138"/>
       <c r="C28" s="138"/>
       <c r="D28" s="139"/>
-      <c r="E28" s="168"/>
+      <c r="E28" s="143"/>
       <c r="F28" s="140" t="s">
         <v>18</v>
       </c>
@@ -58792,14 +58800,14 @@
       <c r="I28" s="141"/>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A29" s="167" t="str">
+      <c r="A29" s="142" t="str">
         <f>IF(AND(E29=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E27) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
       <c r="D29" s="139"/>
-      <c r="E29" s="168"/>
+      <c r="E29" s="143"/>
       <c r="F29" s="140" t="s">
         <v>18</v>
       </c>
@@ -58811,14 +58819,14 @@
       <c r="I29" s="141"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A30" s="167" t="str">
+      <c r="A30" s="142" t="str">
         <f>IF(AND(E30=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E28) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B30" s="138"/>
       <c r="C30" s="138"/>
       <c r="D30" s="139"/>
-      <c r="E30" s="168"/>
+      <c r="E30" s="143"/>
       <c r="F30" s="140" t="s">
         <v>18</v>
       </c>
@@ -58830,14 +58838,14 @@
       <c r="I30" s="141"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A31" s="167" t="str">
+      <c r="A31" s="142" t="str">
         <f>IF(AND(E31=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E29) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B31" s="138"/>
       <c r="C31" s="138"/>
       <c r="D31" s="139"/>
-      <c r="E31" s="168"/>
+      <c r="E31" s="143"/>
       <c r="F31" s="140" t="s">
         <v>18</v>
       </c>
@@ -58849,14 +58857,14 @@
       <c r="I31" s="141"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A32" s="167" t="str">
+      <c r="A32" s="142" t="str">
         <f>IF(AND(E32=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E30) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B32" s="138"/>
       <c r="C32" s="138"/>
       <c r="D32" s="139"/>
-      <c r="E32" s="168"/>
+      <c r="E32" s="143"/>
       <c r="F32" s="140" t="s">
         <v>18</v>
       </c>
@@ -58868,14 +58876,14 @@
       <c r="I32" s="141"/>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A33" s="167" t="str">
+      <c r="A33" s="142" t="str">
         <f>IF(AND(E33=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E31) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B33" s="138"/>
       <c r="C33" s="138"/>
       <c r="D33" s="139"/>
-      <c r="E33" s="168"/>
+      <c r="E33" s="143"/>
       <c r="F33" s="140" t="s">
         <v>18</v>
       </c>
@@ -58887,14 +58895,14 @@
       <c r="I33" s="141"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A34" s="167" t="str">
+      <c r="A34" s="142" t="str">
         <f>IF(AND(E34=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E32) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B34" s="138"/>
       <c r="C34" s="138"/>
       <c r="D34" s="139"/>
-      <c r="E34" s="168"/>
+      <c r="E34" s="143"/>
       <c r="F34" s="140" t="s">
         <v>18</v>
       </c>
@@ -58906,14 +58914,14 @@
       <c r="I34" s="141"/>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A35" s="167" t="str">
+      <c r="A35" s="142" t="str">
         <f>IF(AND(E35=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E33) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B35" s="138"/>
       <c r="C35" s="138"/>
       <c r="D35" s="139"/>
-      <c r="E35" s="168"/>
+      <c r="E35" s="143"/>
       <c r="F35" s="140" t="s">
         <v>18</v>
       </c>
@@ -58925,14 +58933,14 @@
       <c r="I35" s="141"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A36" s="167" t="str">
+      <c r="A36" s="142" t="str">
         <f>IF(AND(E36=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E34) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B36" s="138"/>
       <c r="C36" s="138"/>
       <c r="D36" s="139"/>
-      <c r="E36" s="168"/>
+      <c r="E36" s="143"/>
       <c r="F36" s="140" t="s">
         <v>18</v>
       </c>
@@ -58944,14 +58952,14 @@
       <c r="I36" s="141"/>
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A37" s="167" t="str">
+      <c r="A37" s="142" t="str">
         <f>IF(AND(E37=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E35) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B37" s="138"/>
       <c r="C37" s="138"/>
       <c r="D37" s="139"/>
-      <c r="E37" s="168"/>
+      <c r="E37" s="143"/>
       <c r="F37" s="140" t="s">
         <v>18</v>
       </c>
@@ -58963,14 +58971,14 @@
       <c r="I37" s="141"/>
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A38" s="167" t="str">
+      <c r="A38" s="142" t="str">
         <f>IF(AND(E38=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E36) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B38" s="138"/>
       <c r="C38" s="138"/>
       <c r="D38" s="139"/>
-      <c r="E38" s="168"/>
+      <c r="E38" s="143"/>
       <c r="F38" s="140" t="s">
         <v>18</v>
       </c>
@@ -58982,14 +58990,14 @@
       <c r="I38" s="141"/>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A39" s="167" t="str">
+      <c r="A39" s="142" t="str">
         <f>IF(AND(E39=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E37) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B39" s="138"/>
       <c r="C39" s="138"/>
       <c r="D39" s="139"/>
-      <c r="E39" s="168"/>
+      <c r="E39" s="143"/>
       <c r="F39" s="140" t="s">
         <v>18</v>
       </c>
@@ -59001,14 +59009,14 @@
       <c r="I39" s="141"/>
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A40" s="167" t="str">
+      <c r="A40" s="142" t="str">
         <f>IF(AND(E40=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E38) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B40" s="138"/>
       <c r="C40" s="138"/>
       <c r="D40" s="139"/>
-      <c r="E40" s="168"/>
+      <c r="E40" s="143"/>
       <c r="F40" s="140" t="s">
         <v>18</v>
       </c>
@@ -59020,14 +59028,14 @@
       <c r="I40" s="141"/>
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A41" s="167" t="str">
+      <c r="A41" s="142" t="str">
         <f>IF(AND(E41=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E39) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B41" s="138"/>
       <c r="C41" s="138"/>
       <c r="D41" s="139"/>
-      <c r="E41" s="168"/>
+      <c r="E41" s="143"/>
       <c r="F41" s="140" t="s">
         <v>18</v>
       </c>
@@ -59039,14 +59047,14 @@
       <c r="I41" s="141"/>
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A42" s="167" t="str">
+      <c r="A42" s="142" t="str">
         <f>IF(AND(E42=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E40) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B42" s="138"/>
       <c r="C42" s="138"/>
       <c r="D42" s="139"/>
-      <c r="E42" s="168"/>
+      <c r="E42" s="143"/>
       <c r="F42" s="140" t="s">
         <v>18</v>
       </c>
@@ -59058,14 +59066,14 @@
       <c r="I42" s="141"/>
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A43" s="167" t="str">
+      <c r="A43" s="142" t="str">
         <f>IF(AND(E43=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E41) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B43" s="138"/>
       <c r="C43" s="138"/>
       <c r="D43" s="139"/>
-      <c r="E43" s="168"/>
+      <c r="E43" s="143"/>
       <c r="F43" s="140" t="s">
         <v>18</v>
       </c>
@@ -59077,14 +59085,14 @@
       <c r="I43" s="141"/>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A44" s="167" t="str">
+      <c r="A44" s="142" t="str">
         <f>IF(AND(E44=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E42) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B44" s="138"/>
       <c r="C44" s="138"/>
       <c r="D44" s="139"/>
-      <c r="E44" s="168"/>
+      <c r="E44" s="143"/>
       <c r="F44" s="140" t="s">
         <v>18</v>
       </c>
@@ -59096,14 +59104,14 @@
       <c r="I44" s="141"/>
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A45" s="167" t="str">
+      <c r="A45" s="142" t="str">
         <f>IF(AND(E45=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E43) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B45" s="138"/>
       <c r="C45" s="138"/>
       <c r="D45" s="139"/>
-      <c r="E45" s="168"/>
+      <c r="E45" s="143"/>
       <c r="F45" s="140" t="s">
         <v>18</v>
       </c>
@@ -59115,14 +59123,14 @@
       <c r="I45" s="141"/>
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A46" s="167" t="str">
+      <c r="A46" s="142" t="str">
         <f>IF(AND(E46=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E44) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B46" s="138"/>
       <c r="C46" s="138"/>
       <c r="D46" s="139"/>
-      <c r="E46" s="168"/>
+      <c r="E46" s="143"/>
       <c r="F46" s="140" t="s">
         <v>18</v>
       </c>
@@ -59134,14 +59142,14 @@
       <c r="I46" s="141"/>
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A47" s="167" t="str">
+      <c r="A47" s="142" t="str">
         <f>IF(AND(E47=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E45) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B47" s="138"/>
       <c r="C47" s="138"/>
       <c r="D47" s="139"/>
-      <c r="E47" s="168"/>
+      <c r="E47" s="143"/>
       <c r="F47" s="140" t="s">
         <v>18</v>
       </c>
@@ -59153,14 +59161,14 @@
       <c r="I47" s="141"/>
     </row>
     <row r="48" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A48" s="167" t="str">
+      <c r="A48" s="142" t="str">
         <f>IF(AND(E48=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E46) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B48" s="138"/>
       <c r="C48" s="138"/>
       <c r="D48" s="139"/>
-      <c r="E48" s="168"/>
+      <c r="E48" s="143"/>
       <c r="F48" s="140" t="s">
         <v>18</v>
       </c>
@@ -59172,14 +59180,14 @@
       <c r="I48" s="141"/>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A49" s="167" t="str">
+      <c r="A49" s="142" t="str">
         <f>IF(AND(E49=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E47) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B49" s="138"/>
       <c r="C49" s="138"/>
       <c r="D49" s="139"/>
-      <c r="E49" s="168"/>
+      <c r="E49" s="143"/>
       <c r="F49" s="140" t="s">
         <v>18</v>
       </c>
@@ -59191,14 +59199,14 @@
       <c r="I49" s="141"/>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A50" s="167" t="str">
+      <c r="A50" s="142" t="str">
         <f>IF(AND(E50=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E48) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B50" s="138"/>
       <c r="C50" s="138"/>
       <c r="D50" s="139"/>
-      <c r="E50" s="168"/>
+      <c r="E50" s="143"/>
       <c r="F50" s="140" t="s">
         <v>18</v>
       </c>
@@ -59210,14 +59218,14 @@
       <c r="I50" s="141"/>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A51" s="167" t="str">
+      <c r="A51" s="142" t="str">
         <f>IF(AND(E51=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E49) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B51" s="138"/>
       <c r="C51" s="138"/>
       <c r="D51" s="139"/>
-      <c r="E51" s="168"/>
+      <c r="E51" s="143"/>
       <c r="F51" s="140" t="s">
         <v>18</v>
       </c>
@@ -59229,14 +59237,14 @@
       <c r="I51" s="141"/>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A52" s="167" t="str">
+      <c r="A52" s="142" t="str">
         <f>IF(AND(E52=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E50) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B52" s="138"/>
       <c r="C52" s="138"/>
       <c r="D52" s="139"/>
-      <c r="E52" s="168"/>
+      <c r="E52" s="143"/>
       <c r="F52" s="140" t="s">
         <v>18</v>
       </c>
@@ -59248,14 +59256,14 @@
       <c r="I52" s="141"/>
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A53" s="167" t="str">
+      <c r="A53" s="142" t="str">
         <f>IF(AND(E53=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E51) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
       <c r="D53" s="139"/>
-      <c r="E53" s="168"/>
+      <c r="E53" s="143"/>
       <c r="F53" s="140" t="s">
         <v>18</v>
       </c>
@@ -59267,14 +59275,14 @@
       <c r="I53" s="141"/>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A54" s="167" t="str">
+      <c r="A54" s="142" t="str">
         <f>IF(AND(E54=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E52) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B54" s="138"/>
       <c r="C54" s="138"/>
       <c r="D54" s="139"/>
-      <c r="E54" s="168"/>
+      <c r="E54" s="143"/>
       <c r="F54" s="140" t="s">
         <v>18</v>
       </c>
@@ -59286,14 +59294,14 @@
       <c r="I54" s="141"/>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A55" s="167" t="str">
+      <c r="A55" s="142" t="str">
         <f>IF(AND(E55=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E53) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B55" s="138"/>
       <c r="C55" s="138"/>
       <c r="D55" s="139"/>
-      <c r="E55" s="168"/>
+      <c r="E55" s="143"/>
       <c r="F55" s="140" t="s">
         <v>18</v>
       </c>
@@ -59305,14 +59313,14 @@
       <c r="I55" s="141"/>
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A56" s="167" t="str">
+      <c r="A56" s="142" t="str">
         <f>IF(AND(E56=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E54) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B56" s="138"/>
       <c r="C56" s="138"/>
       <c r="D56" s="139"/>
-      <c r="E56" s="168"/>
+      <c r="E56" s="143"/>
       <c r="F56" s="140" t="s">
         <v>18</v>
       </c>
@@ -59324,14 +59332,14 @@
       <c r="I56" s="141"/>
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A57" s="167" t="str">
+      <c r="A57" s="142" t="str">
         <f>IF(AND(E57=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E55) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B57" s="138"/>
       <c r="C57" s="138"/>
       <c r="D57" s="139"/>
-      <c r="E57" s="168"/>
+      <c r="E57" s="143"/>
       <c r="F57" s="140" t="s">
         <v>18</v>
       </c>
@@ -59343,14 +59351,14 @@
       <c r="I57" s="141"/>
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A58" s="167" t="str">
+      <c r="A58" s="142" t="str">
         <f>IF(AND(E58=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E56) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B58" s="138"/>
       <c r="C58" s="138"/>
       <c r="D58" s="139"/>
-      <c r="E58" s="168"/>
+      <c r="E58" s="143"/>
       <c r="F58" s="140" t="s">
         <v>18</v>
       </c>
@@ -59362,14 +59370,14 @@
       <c r="I58" s="141"/>
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A59" s="167" t="str">
+      <c r="A59" s="142" t="str">
         <f>IF(AND(E59=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E57) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B59" s="138"/>
       <c r="C59" s="138"/>
       <c r="D59" s="139"/>
-      <c r="E59" s="168"/>
+      <c r="E59" s="143"/>
       <c r="F59" s="140" t="s">
         <v>18</v>
       </c>
@@ -59381,14 +59389,14 @@
       <c r="I59" s="141"/>
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A60" s="167" t="str">
+      <c r="A60" s="142" t="str">
         <f>IF(AND(E60=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E58) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B60" s="138"/>
       <c r="C60" s="138"/>
       <c r="D60" s="139"/>
-      <c r="E60" s="168"/>
+      <c r="E60" s="143"/>
       <c r="F60" s="140" t="s">
         <v>18</v>
       </c>
@@ -59400,14 +59408,14 @@
       <c r="I60" s="141"/>
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A61" s="167" t="str">
+      <c r="A61" s="142" t="str">
         <f>IF(AND(E61=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E59) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B61" s="138"/>
       <c r="C61" s="138"/>
       <c r="D61" s="139"/>
-      <c r="E61" s="168"/>
+      <c r="E61" s="143"/>
       <c r="F61" s="140" t="s">
         <v>18</v>
       </c>
@@ -59419,14 +59427,14 @@
       <c r="I61" s="141"/>
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A62" s="167" t="str">
+      <c r="A62" s="142" t="str">
         <f>IF(AND(E62=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E60) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B62" s="138"/>
       <c r="C62" s="138"/>
       <c r="D62" s="139"/>
-      <c r="E62" s="168"/>
+      <c r="E62" s="143"/>
       <c r="F62" s="140" t="s">
         <v>18</v>
       </c>
@@ -59438,14 +59446,14 @@
       <c r="I62" s="141"/>
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A63" s="167" t="str">
+      <c r="A63" s="142" t="str">
         <f>IF(AND(E63=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E61) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B63" s="138"/>
       <c r="C63" s="138"/>
       <c r="D63" s="139"/>
-      <c r="E63" s="168"/>
+      <c r="E63" s="143"/>
       <c r="F63" s="140" t="s">
         <v>18</v>
       </c>
@@ -59457,14 +59465,14 @@
       <c r="I63" s="141"/>
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A64" s="167" t="str">
+      <c r="A64" s="142" t="str">
         <f>IF(AND(E64=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E62) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B64" s="138"/>
       <c r="C64" s="138"/>
       <c r="D64" s="139"/>
-      <c r="E64" s="168"/>
+      <c r="E64" s="143"/>
       <c r="F64" s="140" t="s">
         <v>18</v>
       </c>
@@ -59476,14 +59484,14 @@
       <c r="I64" s="141"/>
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A65" s="167" t="str">
+      <c r="A65" s="142" t="str">
         <f>IF(AND(E65=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E63) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B65" s="138"/>
       <c r="C65" s="138"/>
       <c r="D65" s="139"/>
-      <c r="E65" s="168"/>
+      <c r="E65" s="143"/>
       <c r="F65" s="140" t="s">
         <v>18</v>
       </c>
@@ -59495,14 +59503,14 @@
       <c r="I65" s="141"/>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A66" s="167" t="str">
+      <c r="A66" s="142" t="str">
         <f>IF(AND(E66=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E64) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B66" s="138"/>
       <c r="C66" s="138"/>
       <c r="D66" s="139"/>
-      <c r="E66" s="168"/>
+      <c r="E66" s="143"/>
       <c r="F66" s="140" t="s">
         <v>18</v>
       </c>
@@ -59514,14 +59522,14 @@
       <c r="I66" s="141"/>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A67" s="167" t="str">
+      <c r="A67" s="142" t="str">
         <f>IF(AND(E67=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E65) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B67" s="138"/>
       <c r="C67" s="138"/>
       <c r="D67" s="139"/>
-      <c r="E67" s="168"/>
+      <c r="E67" s="143"/>
       <c r="F67" s="140" t="s">
         <v>18</v>
       </c>
@@ -59533,14 +59541,14 @@
       <c r="I67" s="141"/>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A68" s="167" t="str">
+      <c r="A68" s="142" t="str">
         <f>IF(AND(E68=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E66) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B68" s="138"/>
       <c r="C68" s="138"/>
       <c r="D68" s="139"/>
-      <c r="E68" s="168"/>
+      <c r="E68" s="143"/>
       <c r="F68" s="140" t="s">
         <v>18</v>
       </c>
@@ -59552,14 +59560,14 @@
       <c r="I68" s="141"/>
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A69" s="167" t="str">
+      <c r="A69" s="142" t="str">
         <f>IF(AND(E69=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E67) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B69" s="138"/>
       <c r="C69" s="138"/>
       <c r="D69" s="139"/>
-      <c r="E69" s="168"/>
+      <c r="E69" s="143"/>
       <c r="F69" s="140" t="s">
         <v>18</v>
       </c>
@@ -59571,14 +59579,14 @@
       <c r="I69" s="141"/>
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A70" s="167" t="str">
+      <c r="A70" s="142" t="str">
         <f>IF(AND(E70=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E68) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B70" s="138"/>
       <c r="C70" s="138"/>
       <c r="D70" s="139"/>
-      <c r="E70" s="168"/>
+      <c r="E70" s="143"/>
       <c r="F70" s="140" t="s">
         <v>18</v>
       </c>
@@ -59590,14 +59598,14 @@
       <c r="I70" s="141"/>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A71" s="167" t="str">
+      <c r="A71" s="142" t="str">
         <f>IF(AND(E71=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E69) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B71" s="138"/>
       <c r="C71" s="138"/>
       <c r="D71" s="139"/>
-      <c r="E71" s="168"/>
+      <c r="E71" s="143"/>
       <c r="F71" s="140" t="s">
         <v>18</v>
       </c>
@@ -59609,14 +59617,14 @@
       <c r="I71" s="141"/>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A72" s="167" t="str">
+      <c r="A72" s="142" t="str">
         <f>IF(AND(E72=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E70) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B72" s="138"/>
       <c r="C72" s="138"/>
       <c r="D72" s="139"/>
-      <c r="E72" s="168"/>
+      <c r="E72" s="143"/>
       <c r="F72" s="140" t="s">
         <v>18</v>
       </c>
@@ -59628,14 +59636,14 @@
       <c r="I72" s="141"/>
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A73" s="167" t="str">
+      <c r="A73" s="142" t="str">
         <f>IF(AND(E73=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E71) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B73" s="138"/>
       <c r="C73" s="138"/>
       <c r="D73" s="139"/>
-      <c r="E73" s="168"/>
+      <c r="E73" s="143"/>
       <c r="F73" s="140" t="s">
         <v>18</v>
       </c>
@@ -59647,14 +59655,14 @@
       <c r="I73" s="141"/>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A74" s="167" t="str">
+      <c r="A74" s="142" t="str">
         <f>IF(AND(E74=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E72) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B74" s="138"/>
       <c r="C74" s="138"/>
       <c r="D74" s="139"/>
-      <c r="E74" s="168"/>
+      <c r="E74" s="143"/>
       <c r="F74" s="140" t="s">
         <v>18</v>
       </c>
@@ -59666,14 +59674,14 @@
       <c r="I74" s="141"/>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A75" s="167" t="str">
+      <c r="A75" s="142" t="str">
         <f>IF(AND(E75=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E73) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B75" s="138"/>
       <c r="C75" s="138"/>
       <c r="D75" s="139"/>
-      <c r="E75" s="168"/>
+      <c r="E75" s="143"/>
       <c r="F75" s="140" t="s">
         <v>18</v>
       </c>
@@ -59685,14 +59693,14 @@
       <c r="I75" s="141"/>
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A76" s="167" t="str">
+      <c r="A76" s="142" t="str">
         <f>IF(AND(E76=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E74) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B76" s="138"/>
       <c r="C76" s="138"/>
       <c r="D76" s="139"/>
-      <c r="E76" s="168"/>
+      <c r="E76" s="143"/>
       <c r="F76" s="140" t="s">
         <v>18</v>
       </c>
@@ -59704,14 +59712,14 @@
       <c r="I76" s="141"/>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A77" s="167" t="str">
+      <c r="A77" s="142" t="str">
         <f>IF(AND(E77=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E75) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B77" s="138"/>
       <c r="C77" s="138"/>
       <c r="D77" s="139"/>
-      <c r="E77" s="168"/>
+      <c r="E77" s="143"/>
       <c r="F77" s="140" t="s">
         <v>18</v>
       </c>
@@ -59723,14 +59731,14 @@
       <c r="I77" s="141"/>
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A78" s="167" t="str">
+      <c r="A78" s="142" t="str">
         <f>IF(AND(E78=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E76) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B78" s="138"/>
       <c r="C78" s="138"/>
       <c r="D78" s="139"/>
-      <c r="E78" s="168"/>
+      <c r="E78" s="143"/>
       <c r="F78" s="140" t="s">
         <v>18</v>
       </c>
@@ -59742,14 +59750,14 @@
       <c r="I78" s="141"/>
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A79" s="167" t="str">
+      <c r="A79" s="142" t="str">
         <f>IF(AND(E79=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E77) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B79" s="138"/>
       <c r="C79" s="138"/>
       <c r="D79" s="139"/>
-      <c r="E79" s="168"/>
+      <c r="E79" s="143"/>
       <c r="F79" s="140" t="s">
         <v>18</v>
       </c>
@@ -59761,14 +59769,14 @@
       <c r="I79" s="141"/>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A80" s="167" t="str">
+      <c r="A80" s="142" t="str">
         <f>IF(AND(E80=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E78) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B80" s="138"/>
       <c r="C80" s="138"/>
       <c r="D80" s="139"/>
-      <c r="E80" s="168"/>
+      <c r="E80" s="143"/>
       <c r="F80" s="140" t="s">
         <v>18</v>
       </c>
@@ -59780,14 +59788,14 @@
       <c r="I80" s="141"/>
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A81" s="167" t="str">
+      <c r="A81" s="142" t="str">
         <f>IF(AND(E81=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E79) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B81" s="138"/>
       <c r="C81" s="138"/>
       <c r="D81" s="139"/>
-      <c r="E81" s="168"/>
+      <c r="E81" s="143"/>
       <c r="F81" s="140" t="s">
         <v>18</v>
       </c>
@@ -59799,14 +59807,14 @@
       <c r="I81" s="141"/>
     </row>
     <row r="82" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A82" s="167" t="str">
+      <c r="A82" s="142" t="str">
         <f>IF(AND(E82=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E80) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B82" s="138"/>
       <c r="C82" s="138"/>
       <c r="D82" s="139"/>
-      <c r="E82" s="168"/>
+      <c r="E82" s="143"/>
       <c r="F82" s="140" t="s">
         <v>18</v>
       </c>
@@ -59818,14 +59826,14 @@
       <c r="I82" s="141"/>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A83" s="167" t="str">
+      <c r="A83" s="142" t="str">
         <f>IF(AND(E83=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E81) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B83" s="138"/>
       <c r="C83" s="138"/>
       <c r="D83" s="139"/>
-      <c r="E83" s="168"/>
+      <c r="E83" s="143"/>
       <c r="F83" s="140" t="s">
         <v>18</v>
       </c>
@@ -59837,14 +59845,14 @@
       <c r="I83" s="141"/>
     </row>
     <row r="84" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A84" s="167" t="str">
+      <c r="A84" s="142" t="str">
         <f>IF(AND(E84=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E82) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B84" s="138"/>
       <c r="C84" s="138"/>
       <c r="D84" s="139"/>
-      <c r="E84" s="168"/>
+      <c r="E84" s="143"/>
       <c r="F84" s="140" t="s">
         <v>18</v>
       </c>
@@ -59856,14 +59864,14 @@
       <c r="I84" s="141"/>
     </row>
     <row r="85" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A85" s="167" t="str">
+      <c r="A85" s="142" t="str">
         <f>IF(AND(E85=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E83) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B85" s="138"/>
       <c r="C85" s="138"/>
       <c r="D85" s="139"/>
-      <c r="E85" s="168"/>
+      <c r="E85" s="143"/>
       <c r="F85" s="140" t="s">
         <v>18</v>
       </c>
@@ -59875,14 +59883,14 @@
       <c r="I85" s="141"/>
     </row>
     <row r="86" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A86" s="167" t="str">
+      <c r="A86" s="142" t="str">
         <f>IF(AND(E86=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E84) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B86" s="138"/>
       <c r="C86" s="138"/>
       <c r="D86" s="139"/>
-      <c r="E86" s="168"/>
+      <c r="E86" s="143"/>
       <c r="F86" s="140" t="s">
         <v>18</v>
       </c>
@@ -59894,14 +59902,14 @@
       <c r="I86" s="141"/>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A87" s="167" t="str">
+      <c r="A87" s="142" t="str">
         <f>IF(AND(E87=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E85) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B87" s="138"/>
       <c r="C87" s="138"/>
       <c r="D87" s="139"/>
-      <c r="E87" s="168"/>
+      <c r="E87" s="143"/>
       <c r="F87" s="140" t="s">
         <v>18</v>
       </c>
@@ -59913,14 +59921,14 @@
       <c r="I87" s="141"/>
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A88" s="167" t="str">
+      <c r="A88" s="142" t="str">
         <f>IF(AND(E88=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E86) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B88" s="138"/>
       <c r="C88" s="138"/>
       <c r="D88" s="139"/>
-      <c r="E88" s="168"/>
+      <c r="E88" s="143"/>
       <c r="F88" s="140" t="s">
         <v>18</v>
       </c>
@@ -59932,14 +59940,14 @@
       <c r="I88" s="141"/>
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A89" s="167" t="str">
+      <c r="A89" s="142" t="str">
         <f>IF(AND(E89=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E87) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B89" s="138"/>
       <c r="C89" s="138"/>
       <c r="D89" s="139"/>
-      <c r="E89" s="168"/>
+      <c r="E89" s="143"/>
       <c r="F89" s="140" t="s">
         <v>18</v>
       </c>
@@ -59951,14 +59959,14 @@
       <c r="I89" s="141"/>
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A90" s="167" t="str">
+      <c r="A90" s="142" t="str">
         <f>IF(AND(E90=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E88) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B90" s="138"/>
       <c r="C90" s="138"/>
       <c r="D90" s="139"/>
-      <c r="E90" s="168"/>
+      <c r="E90" s="143"/>
       <c r="F90" s="140" t="s">
         <v>18</v>
       </c>
@@ -59970,14 +59978,14 @@
       <c r="I90" s="141"/>
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A91" s="167" t="str">
+      <c r="A91" s="142" t="str">
         <f>IF(AND(E91=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E89) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B91" s="138"/>
       <c r="C91" s="138"/>
       <c r="D91" s="139"/>
-      <c r="E91" s="168"/>
+      <c r="E91" s="143"/>
       <c r="F91" s="140" t="s">
         <v>18</v>
       </c>
@@ -59989,14 +59997,14 @@
       <c r="I91" s="141"/>
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A92" s="167" t="str">
+      <c r="A92" s="142" t="str">
         <f>IF(AND(E92=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E90) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B92" s="138"/>
       <c r="C92" s="138"/>
       <c r="D92" s="139"/>
-      <c r="E92" s="168"/>
+      <c r="E92" s="143"/>
       <c r="F92" s="140" t="s">
         <v>18</v>
       </c>
@@ -60008,14 +60016,14 @@
       <c r="I92" s="141"/>
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A93" s="167" t="str">
+      <c r="A93" s="142" t="str">
         <f>IF(AND(E93=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E91) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B93" s="138"/>
       <c r="C93" s="138"/>
       <c r="D93" s="139"/>
-      <c r="E93" s="168"/>
+      <c r="E93" s="143"/>
       <c r="F93" s="140" t="s">
         <v>18</v>
       </c>
@@ -60027,14 +60035,14 @@
       <c r="I93" s="141"/>
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A94" s="167" t="str">
+      <c r="A94" s="142" t="str">
         <f>IF(AND(E94=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E92) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B94" s="138"/>
       <c r="C94" s="138"/>
       <c r="D94" s="139"/>
-      <c r="E94" s="168"/>
+      <c r="E94" s="143"/>
       <c r="F94" s="140" t="s">
         <v>18</v>
       </c>
@@ -60046,14 +60054,14 @@
       <c r="I94" s="141"/>
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A95" s="167" t="str">
+      <c r="A95" s="142" t="str">
         <f>IF(AND(E95=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E93) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B95" s="138"/>
       <c r="C95" s="138"/>
       <c r="D95" s="139"/>
-      <c r="E95" s="168"/>
+      <c r="E95" s="143"/>
       <c r="F95" s="140" t="s">
         <v>18</v>
       </c>
@@ -60065,14 +60073,14 @@
       <c r="I95" s="141"/>
     </row>
     <row r="96" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A96" s="167" t="str">
+      <c r="A96" s="142" t="str">
         <f>IF(AND(E96=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E94) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B96" s="138"/>
       <c r="C96" s="138"/>
       <c r="D96" s="139"/>
-      <c r="E96" s="168"/>
+      <c r="E96" s="143"/>
       <c r="F96" s="140" t="s">
         <v>18</v>
       </c>
@@ -60084,14 +60092,14 @@
       <c r="I96" s="141"/>
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A97" s="167" t="str">
+      <c r="A97" s="142" t="str">
         <f>IF(AND(E97=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E95) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B97" s="138"/>
       <c r="C97" s="138"/>
       <c r="D97" s="139"/>
-      <c r="E97" s="168"/>
+      <c r="E97" s="143"/>
       <c r="F97" s="140" t="s">
         <v>18</v>
       </c>
@@ -60103,14 +60111,14 @@
       <c r="I97" s="141"/>
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A98" s="167" t="str">
+      <c r="A98" s="142" t="str">
         <f>IF(AND(E98=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E96) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B98" s="138"/>
       <c r="C98" s="138"/>
       <c r="D98" s="139"/>
-      <c r="E98" s="168"/>
+      <c r="E98" s="143"/>
       <c r="F98" s="140" t="s">
         <v>18</v>
       </c>
@@ -60122,14 +60130,14 @@
       <c r="I98" s="141"/>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A99" s="167" t="str">
+      <c r="A99" s="142" t="str">
         <f>IF(AND(E99=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E97) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B99" s="138"/>
       <c r="C99" s="138"/>
       <c r="D99" s="139"/>
-      <c r="E99" s="168"/>
+      <c r="E99" s="143"/>
       <c r="F99" s="140" t="s">
         <v>18</v>
       </c>
@@ -60141,14 +60149,14 @@
       <c r="I99" s="141"/>
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A100" s="167" t="str">
+      <c r="A100" s="142" t="str">
         <f>IF(AND(E100=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E98) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B100" s="138"/>
       <c r="C100" s="138"/>
       <c r="D100" s="139"/>
-      <c r="E100" s="168"/>
+      <c r="E100" s="143"/>
       <c r="F100" s="140" t="s">
         <v>18</v>
       </c>
@@ -60160,14 +60168,14 @@
       <c r="I100" s="141"/>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A101" s="167" t="str">
+      <c r="A101" s="142" t="str">
         <f>IF(AND(E101=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E99) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B101" s="138"/>
       <c r="C101" s="138"/>
       <c r="D101" s="139"/>
-      <c r="E101" s="168"/>
+      <c r="E101" s="143"/>
       <c r="F101" s="140" t="s">
         <v>18</v>
       </c>
@@ -60179,14 +60187,14 @@
       <c r="I101" s="141"/>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A102" s="167" t="str">
+      <c r="A102" s="142" t="str">
         <f>IF(AND(E102=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E100) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B102" s="138"/>
       <c r="C102" s="138"/>
       <c r="D102" s="139"/>
-      <c r="E102" s="168"/>
+      <c r="E102" s="143"/>
       <c r="F102" s="140" t="s">
         <v>18</v>
       </c>
@@ -60198,14 +60206,14 @@
       <c r="I102" s="141"/>
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A103" s="167" t="str">
+      <c r="A103" s="142" t="str">
         <f>IF(AND(E103=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E101) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B103" s="138"/>
       <c r="C103" s="138"/>
       <c r="D103" s="139"/>
-      <c r="E103" s="168"/>
+      <c r="E103" s="143"/>
       <c r="F103" s="140" t="s">
         <v>18</v>
       </c>
@@ -60217,14 +60225,14 @@
       <c r="I103" s="141"/>
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A104" s="167" t="str">
+      <c r="A104" s="142" t="str">
         <f>IF(AND(E104=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E102) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B104" s="138"/>
       <c r="C104" s="138"/>
       <c r="D104" s="139"/>
-      <c r="E104" s="168"/>
+      <c r="E104" s="143"/>
       <c r="F104" s="140" t="s">
         <v>18</v>
       </c>
@@ -60236,14 +60244,14 @@
       <c r="I104" s="141"/>
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A105" s="167" t="str">
+      <c r="A105" s="142" t="str">
         <f>IF(AND(E105=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E103) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B105" s="138"/>
       <c r="C105" s="138"/>
       <c r="D105" s="139"/>
-      <c r="E105" s="168"/>
+      <c r="E105" s="143"/>
       <c r="F105" s="140" t="s">
         <v>18</v>
       </c>
@@ -60255,14 +60263,14 @@
       <c r="I105" s="141"/>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A106" s="167" t="str">
+      <c r="A106" s="142" t="str">
         <f>IF(AND(E106=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E104) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B106" s="138"/>
       <c r="C106" s="138"/>
       <c r="D106" s="139"/>
-      <c r="E106" s="168"/>
+      <c r="E106" s="143"/>
       <c r="F106" s="140" t="s">
         <v>18</v>
       </c>
@@ -60274,14 +60282,14 @@
       <c r="I106" s="141"/>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A107" s="167" t="str">
+      <c r="A107" s="142" t="str">
         <f>IF(AND(E107=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E105) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B107" s="138"/>
       <c r="C107" s="138"/>
       <c r="D107" s="139"/>
-      <c r="E107" s="168"/>
+      <c r="E107" s="143"/>
       <c r="F107" s="140" t="s">
         <v>18</v>
       </c>
@@ -60293,14 +60301,14 @@
       <c r="I107" s="141"/>
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A108" s="167" t="str">
+      <c r="A108" s="142" t="str">
         <f>IF(AND(E108=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E106) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B108" s="138"/>
       <c r="C108" s="138"/>
       <c r="D108" s="139"/>
-      <c r="E108" s="168"/>
+      <c r="E108" s="143"/>
       <c r="F108" s="140" t="s">
         <v>18</v>
       </c>
@@ -60312,14 +60320,14 @@
       <c r="I108" s="141"/>
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A109" s="167" t="str">
+      <c r="A109" s="142" t="str">
         <f>IF(AND(E109=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E107) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B109" s="138"/>
       <c r="C109" s="138"/>
       <c r="D109" s="139"/>
-      <c r="E109" s="168"/>
+      <c r="E109" s="143"/>
       <c r="F109" s="140" t="s">
         <v>18</v>
       </c>
@@ -60331,14 +60339,14 @@
       <c r="I109" s="141"/>
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A110" s="167" t="str">
+      <c r="A110" s="142" t="str">
         <f>IF(AND(E110=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E108) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B110" s="138"/>
       <c r="C110" s="138"/>
       <c r="D110" s="139"/>
-      <c r="E110" s="168"/>
+      <c r="E110" s="143"/>
       <c r="F110" s="140" t="s">
         <v>18</v>
       </c>
@@ -60350,14 +60358,14 @@
       <c r="I110" s="141"/>
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A111" s="167" t="str">
+      <c r="A111" s="142" t="str">
         <f>IF(AND(E111=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E109) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B111" s="138"/>
       <c r="C111" s="138"/>
       <c r="D111" s="139"/>
-      <c r="E111" s="168"/>
+      <c r="E111" s="143"/>
       <c r="F111" s="140" t="s">
         <v>18</v>
       </c>
@@ -60369,14 +60377,14 @@
       <c r="I111" s="141"/>
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A112" s="167" t="str">
+      <c r="A112" s="142" t="str">
         <f>IF(AND(E112=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E110) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B112" s="138"/>
       <c r="C112" s="138"/>
       <c r="D112" s="139"/>
-      <c r="E112" s="168"/>
+      <c r="E112" s="143"/>
       <c r="F112" s="140" t="s">
         <v>18</v>
       </c>
@@ -60388,14 +60396,14 @@
       <c r="I112" s="141"/>
     </row>
     <row r="113" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A113" s="167" t="str">
+      <c r="A113" s="142" t="str">
         <f>IF(AND(E113=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E111) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B113" s="138"/>
       <c r="C113" s="138"/>
       <c r="D113" s="139"/>
-      <c r="E113" s="168"/>
+      <c r="E113" s="143"/>
       <c r="F113" s="140" t="s">
         <v>18</v>
       </c>
@@ -60407,14 +60415,14 @@
       <c r="I113" s="141"/>
     </row>
     <row r="114" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A114" s="167" t="str">
+      <c r="A114" s="142" t="str">
         <f>IF(AND(E114=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E112) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B114" s="138"/>
       <c r="C114" s="138"/>
       <c r="D114" s="139"/>
-      <c r="E114" s="168"/>
+      <c r="E114" s="143"/>
       <c r="F114" s="140" t="s">
         <v>18</v>
       </c>
@@ -60426,14 +60434,14 @@
       <c r="I114" s="141"/>
     </row>
     <row r="115" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A115" s="167" t="str">
+      <c r="A115" s="142" t="str">
         <f>IF(AND(E115=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E113) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B115" s="138"/>
       <c r="C115" s="138"/>
       <c r="D115" s="139"/>
-      <c r="E115" s="168"/>
+      <c r="E115" s="143"/>
       <c r="F115" s="140" t="s">
         <v>18</v>
       </c>
@@ -60445,14 +60453,14 @@
       <c r="I115" s="141"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A116" s="167" t="str">
+      <c r="A116" s="142" t="str">
         <f>IF(AND(E116=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E114) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B116" s="138"/>
       <c r="C116" s="138"/>
       <c r="D116" s="139"/>
-      <c r="E116" s="168"/>
+      <c r="E116" s="143"/>
       <c r="F116" s="140" t="s">
         <v>18</v>
       </c>
@@ -60464,14 +60472,14 @@
       <c r="I116" s="141"/>
     </row>
     <row r="117" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A117" s="167" t="str">
+      <c r="A117" s="142" t="str">
         <f>IF(AND(E117=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E115) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B117" s="138"/>
       <c r="C117" s="138"/>
       <c r="D117" s="139"/>
-      <c r="E117" s="168"/>
+      <c r="E117" s="143"/>
       <c r="F117" s="140" t="s">
         <v>18</v>
       </c>
@@ -60483,14 +60491,14 @@
       <c r="I117" s="141"/>
     </row>
     <row r="118" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A118" s="167" t="str">
+      <c r="A118" s="142" t="str">
         <f>IF(AND(E118=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E116) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B118" s="138"/>
       <c r="C118" s="138"/>
       <c r="D118" s="139"/>
-      <c r="E118" s="168"/>
+      <c r="E118" s="143"/>
       <c r="F118" s="140" t="s">
         <v>18</v>
       </c>
@@ -60502,14 +60510,14 @@
       <c r="I118" s="141"/>
     </row>
     <row r="119" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A119" s="167" t="str">
+      <c r="A119" s="142" t="str">
         <f>IF(AND(E119=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E117) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B119" s="138"/>
       <c r="C119" s="138"/>
       <c r="D119" s="139"/>
-      <c r="E119" s="168"/>
+      <c r="E119" s="143"/>
       <c r="F119" s="140" t="s">
         <v>18</v>
       </c>
@@ -60521,14 +60529,14 @@
       <c r="I119" s="141"/>
     </row>
     <row r="120" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A120" s="167" t="str">
+      <c r="A120" s="142" t="str">
         <f>IF(AND(E120=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E118) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B120" s="138"/>
       <c r="C120" s="138"/>
       <c r="D120" s="139"/>
-      <c r="E120" s="168"/>
+      <c r="E120" s="143"/>
       <c r="F120" s="140" t="s">
         <v>18</v>
       </c>
@@ -60540,14 +60548,14 @@
       <c r="I120" s="141"/>
     </row>
     <row r="121" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A121" s="167" t="str">
+      <c r="A121" s="142" t="str">
         <f>IF(AND(E121=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E119) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B121" s="138"/>
       <c r="C121" s="138"/>
       <c r="D121" s="139"/>
-      <c r="E121" s="168"/>
+      <c r="E121" s="143"/>
       <c r="F121" s="140" t="s">
         <v>18</v>
       </c>
@@ -60559,14 +60567,14 @@
       <c r="I121" s="141"/>
     </row>
     <row r="122" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A122" s="167" t="str">
+      <c r="A122" s="142" t="str">
         <f>IF(AND(E122=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E120) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B122" s="138"/>
       <c r="C122" s="138"/>
       <c r="D122" s="139"/>
-      <c r="E122" s="168"/>
+      <c r="E122" s="143"/>
       <c r="F122" s="140" t="s">
         <v>18</v>
       </c>
@@ -60578,14 +60586,14 @@
       <c r="I122" s="141"/>
     </row>
     <row r="123" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A123" s="167" t="str">
+      <c r="A123" s="142" t="str">
         <f>IF(AND(E123=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E121) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B123" s="138"/>
       <c r="C123" s="138"/>
       <c r="D123" s="139"/>
-      <c r="E123" s="168"/>
+      <c r="E123" s="143"/>
       <c r="F123" s="140" t="s">
         <v>18</v>
       </c>
@@ -60597,14 +60605,14 @@
       <c r="I123" s="141"/>
     </row>
     <row r="124" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A124" s="167" t="str">
+      <c r="A124" s="142" t="str">
         <f>IF(AND(E124=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E122) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B124" s="138"/>
       <c r="C124" s="138"/>
       <c r="D124" s="139"/>
-      <c r="E124" s="168"/>
+      <c r="E124" s="143"/>
       <c r="F124" s="140" t="s">
         <v>18</v>
       </c>
@@ -60616,14 +60624,14 @@
       <c r="I124" s="141"/>
     </row>
     <row r="125" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A125" s="167" t="str">
+      <c r="A125" s="142" t="str">
         <f>IF(AND(E125=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E123) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B125" s="138"/>
       <c r="C125" s="138"/>
       <c r="D125" s="139"/>
-      <c r="E125" s="168"/>
+      <c r="E125" s="143"/>
       <c r="F125" s="140" t="s">
         <v>18</v>
       </c>
@@ -60635,14 +60643,14 @@
       <c r="I125" s="141"/>
     </row>
     <row r="126" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A126" s="167" t="str">
+      <c r="A126" s="142" t="str">
         <f>IF(AND(E126=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E124) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B126" s="138"/>
       <c r="C126" s="138"/>
       <c r="D126" s="139"/>
-      <c r="E126" s="168"/>
+      <c r="E126" s="143"/>
       <c r="F126" s="140" t="s">
         <v>18</v>
       </c>
@@ -60654,14 +60662,14 @@
       <c r="I126" s="141"/>
     </row>
     <row r="127" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A127" s="167" t="str">
+      <c r="A127" s="142" t="str">
         <f>IF(AND(E127=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E125) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B127" s="138"/>
       <c r="C127" s="138"/>
       <c r="D127" s="139"/>
-      <c r="E127" s="168"/>
+      <c r="E127" s="143"/>
       <c r="F127" s="140" t="s">
         <v>18</v>
       </c>
@@ -60673,14 +60681,14 @@
       <c r="I127" s="141"/>
     </row>
     <row r="128" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A128" s="167" t="str">
+      <c r="A128" s="142" t="str">
         <f>IF(AND(E128=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E126) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B128" s="138"/>
       <c r="C128" s="138"/>
       <c r="D128" s="139"/>
-      <c r="E128" s="168"/>
+      <c r="E128" s="143"/>
       <c r="F128" s="140" t="s">
         <v>18</v>
       </c>
@@ -60692,14 +60700,14 @@
       <c r="I128" s="141"/>
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A129" s="167" t="str">
+      <c r="A129" s="142" t="str">
         <f>IF(AND(E129=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E127) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B129" s="138"/>
       <c r="C129" s="138"/>
       <c r="D129" s="139"/>
-      <c r="E129" s="168"/>
+      <c r="E129" s="143"/>
       <c r="F129" s="140" t="s">
         <v>18</v>
       </c>
@@ -60711,14 +60719,14 @@
       <c r="I129" s="141"/>
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A130" s="167" t="str">
+      <c r="A130" s="142" t="str">
         <f>IF(AND(E130=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E128) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B130" s="138"/>
       <c r="C130" s="138"/>
       <c r="D130" s="139"/>
-      <c r="E130" s="168"/>
+      <c r="E130" s="143"/>
       <c r="F130" s="140" t="s">
         <v>18</v>
       </c>
@@ -60730,14 +60738,14 @@
       <c r="I130" s="141"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A131" s="167" t="str">
+      <c r="A131" s="142" t="str">
         <f>IF(AND(E131=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E129) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B131" s="138"/>
       <c r="C131" s="138"/>
       <c r="D131" s="139"/>
-      <c r="E131" s="168"/>
+      <c r="E131" s="143"/>
       <c r="F131" s="140" t="s">
         <v>18</v>
       </c>
@@ -60749,14 +60757,14 @@
       <c r="I131" s="141"/>
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A132" s="167" t="str">
+      <c r="A132" s="142" t="str">
         <f>IF(AND(E132=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E130) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B132" s="138"/>
       <c r="C132" s="138"/>
       <c r="D132" s="139"/>
-      <c r="E132" s="168"/>
+      <c r="E132" s="143"/>
       <c r="F132" s="140" t="s">
         <v>18</v>
       </c>
@@ -60768,14 +60776,14 @@
       <c r="I132" s="141"/>
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A133" s="167" t="str">
+      <c r="A133" s="142" t="str">
         <f>IF(AND(E133=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E131) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B133" s="138"/>
       <c r="C133" s="138"/>
       <c r="D133" s="139"/>
-      <c r="E133" s="168"/>
+      <c r="E133" s="143"/>
       <c r="F133" s="140" t="s">
         <v>18</v>
       </c>
@@ -60787,14 +60795,14 @@
       <c r="I133" s="141"/>
     </row>
     <row r="134" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A134" s="167" t="str">
+      <c r="A134" s="142" t="str">
         <f>IF(AND(E134=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E132) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B134" s="138"/>
       <c r="C134" s="138"/>
       <c r="D134" s="139"/>
-      <c r="E134" s="168"/>
+      <c r="E134" s="143"/>
       <c r="F134" s="140" t="s">
         <v>18</v>
       </c>
@@ -60806,14 +60814,14 @@
       <c r="I134" s="141"/>
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A135" s="167" t="str">
+      <c r="A135" s="142" t="str">
         <f>IF(AND(E135=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E133) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B135" s="138"/>
       <c r="C135" s="138"/>
       <c r="D135" s="139"/>
-      <c r="E135" s="168"/>
+      <c r="E135" s="143"/>
       <c r="F135" s="140" t="s">
         <v>18</v>
       </c>
@@ -60825,14 +60833,14 @@
       <c r="I135" s="141"/>
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A136" s="167" t="str">
+      <c r="A136" s="142" t="str">
         <f>IF(AND(E136=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E134) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B136" s="138"/>
       <c r="C136" s="138"/>
       <c r="D136" s="139"/>
-      <c r="E136" s="168"/>
+      <c r="E136" s="143"/>
       <c r="F136" s="140" t="s">
         <v>18</v>
       </c>
@@ -60844,14 +60852,14 @@
       <c r="I136" s="141"/>
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A137" s="167" t="str">
+      <c r="A137" s="142" t="str">
         <f>IF(AND(E137=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E135) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B137" s="138"/>
       <c r="C137" s="138"/>
       <c r="D137" s="139"/>
-      <c r="E137" s="168"/>
+      <c r="E137" s="143"/>
       <c r="F137" s="140" t="s">
         <v>18</v>
       </c>
@@ -60863,14 +60871,14 @@
       <c r="I137" s="141"/>
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A138" s="167" t="str">
+      <c r="A138" s="142" t="str">
         <f>IF(AND(E138=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E136) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B138" s="138"/>
       <c r="C138" s="138"/>
       <c r="D138" s="139"/>
-      <c r="E138" s="168"/>
+      <c r="E138" s="143"/>
       <c r="F138" s="140" t="s">
         <v>18</v>
       </c>
@@ -60882,14 +60890,14 @@
       <c r="I138" s="141"/>
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A139" s="167" t="str">
+      <c r="A139" s="142" t="str">
         <f>IF(AND(E139=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E137) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B139" s="138"/>
       <c r="C139" s="138"/>
       <c r="D139" s="139"/>
-      <c r="E139" s="168"/>
+      <c r="E139" s="143"/>
       <c r="F139" s="140" t="s">
         <v>18</v>
       </c>
@@ -60901,14 +60909,14 @@
       <c r="I139" s="141"/>
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A140" s="167" t="str">
+      <c r="A140" s="142" t="str">
         <f>IF(AND(E140=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E138) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B140" s="138"/>
       <c r="C140" s="138"/>
       <c r="D140" s="139"/>
-      <c r="E140" s="168"/>
+      <c r="E140" s="143"/>
       <c r="F140" s="140" t="s">
         <v>18</v>
       </c>
@@ -60920,14 +60928,14 @@
       <c r="I140" s="141"/>
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A141" s="167" t="str">
+      <c r="A141" s="142" t="str">
         <f>IF(AND(E141=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E139) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B141" s="138"/>
       <c r="C141" s="138"/>
       <c r="D141" s="139"/>
-      <c r="E141" s="168"/>
+      <c r="E141" s="143"/>
       <c r="F141" s="140" t="s">
         <v>18</v>
       </c>
@@ -60939,14 +60947,14 @@
       <c r="I141" s="141"/>
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A142" s="167" t="str">
+      <c r="A142" s="142" t="str">
         <f>IF(AND(E142=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E140) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B142" s="138"/>
       <c r="C142" s="138"/>
       <c r="D142" s="139"/>
-      <c r="E142" s="168"/>
+      <c r="E142" s="143"/>
       <c r="F142" s="140" t="s">
         <v>18</v>
       </c>
@@ -60958,14 +60966,14 @@
       <c r="I142" s="141"/>
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A143" s="167" t="str">
+      <c r="A143" s="142" t="str">
         <f>IF(AND(E143=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E141) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B143" s="138"/>
       <c r="C143" s="138"/>
       <c r="D143" s="139"/>
-      <c r="E143" s="168"/>
+      <c r="E143" s="143"/>
       <c r="F143" s="140" t="s">
         <v>18</v>
       </c>
@@ -60977,14 +60985,14 @@
       <c r="I143" s="141"/>
     </row>
     <row r="144" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A144" s="167" t="str">
+      <c r="A144" s="142" t="str">
         <f>IF(AND(E144=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E142) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B144" s="138"/>
       <c r="C144" s="138"/>
       <c r="D144" s="139"/>
-      <c r="E144" s="168"/>
+      <c r="E144" s="143"/>
       <c r="F144" s="140" t="s">
         <v>18</v>
       </c>
@@ -60996,14 +61004,14 @@
       <c r="I144" s="141"/>
     </row>
     <row r="145" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A145" s="167" t="str">
+      <c r="A145" s="142" t="str">
         <f>IF(AND(E145=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E143) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B145" s="138"/>
       <c r="C145" s="138"/>
       <c r="D145" s="139"/>
-      <c r="E145" s="168"/>
+      <c r="E145" s="143"/>
       <c r="F145" s="140" t="s">
         <v>18</v>
       </c>
@@ -61015,14 +61023,14 @@
       <c r="I145" s="141"/>
     </row>
     <row r="146" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A146" s="167" t="str">
+      <c r="A146" s="142" t="str">
         <f>IF(AND(E146=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E144) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B146" s="138"/>
       <c r="C146" s="138"/>
       <c r="D146" s="139"/>
-      <c r="E146" s="168"/>
+      <c r="E146" s="143"/>
       <c r="F146" s="140" t="s">
         <v>18</v>
       </c>
@@ -61034,14 +61042,14 @@
       <c r="I146" s="141"/>
     </row>
     <row r="147" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A147" s="167" t="str">
+      <c r="A147" s="142" t="str">
         <f>IF(AND(E147=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E145) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B147" s="138"/>
       <c r="C147" s="138"/>
       <c r="D147" s="139"/>
-      <c r="E147" s="168"/>
+      <c r="E147" s="143"/>
       <c r="F147" s="140" t="s">
         <v>18</v>
       </c>
@@ -61053,14 +61061,14 @@
       <c r="I147" s="141"/>
     </row>
     <row r="148" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A148" s="167" t="str">
+      <c r="A148" s="142" t="str">
         <f>IF(AND(E148=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E146) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B148" s="138"/>
       <c r="C148" s="138"/>
       <c r="D148" s="139"/>
-      <c r="E148" s="168"/>
+      <c r="E148" s="143"/>
       <c r="F148" s="140" t="s">
         <v>18</v>
       </c>
@@ -61072,14 +61080,14 @@
       <c r="I148" s="141"/>
     </row>
     <row r="149" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A149" s="167" t="str">
+      <c r="A149" s="142" t="str">
         <f>IF(AND(E149=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E147) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B149" s="138"/>
       <c r="C149" s="138"/>
       <c r="D149" s="139"/>
-      <c r="E149" s="168"/>
+      <c r="E149" s="143"/>
       <c r="F149" s="140" t="s">
         <v>18</v>
       </c>
@@ -61091,14 +61099,14 @@
       <c r="I149" s="141"/>
     </row>
     <row r="150" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A150" s="167" t="str">
+      <c r="A150" s="142" t="str">
         <f>IF(AND(E150=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E148) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B150" s="138"/>
       <c r="C150" s="138"/>
       <c r="D150" s="139"/>
-      <c r="E150" s="168"/>
+      <c r="E150" s="143"/>
       <c r="F150" s="140" t="s">
         <v>18</v>
       </c>
@@ -61110,14 +61118,14 @@
       <c r="I150" s="141"/>
     </row>
     <row r="151" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A151" s="167" t="str">
+      <c r="A151" s="142" t="str">
         <f>IF(AND(E151=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E149) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B151" s="138"/>
       <c r="C151" s="138"/>
       <c r="D151" s="139"/>
-      <c r="E151" s="168"/>
+      <c r="E151" s="143"/>
       <c r="F151" s="140" t="s">
         <v>18</v>
       </c>
@@ -61129,14 +61137,14 @@
       <c r="I151" s="141"/>
     </row>
     <row r="152" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A152" s="167" t="str">
+      <c r="A152" s="142" t="str">
         <f>IF(AND(E152=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E150) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B152" s="138"/>
       <c r="C152" s="138"/>
       <c r="D152" s="139"/>
-      <c r="E152" s="168"/>
+      <c r="E152" s="143"/>
       <c r="F152" s="140" t="s">
         <v>18</v>
       </c>
@@ -61148,14 +61156,14 @@
       <c r="I152" s="141"/>
     </row>
     <row r="153" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A153" s="167" t="str">
+      <c r="A153" s="142" t="str">
         <f>IF(AND(E153=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E151) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B153" s="138"/>
       <c r="C153" s="138"/>
       <c r="D153" s="139"/>
-      <c r="E153" s="168"/>
+      <c r="E153" s="143"/>
       <c r="F153" s="140" t="s">
         <v>18</v>
       </c>
@@ -61167,14 +61175,14 @@
       <c r="I153" s="141"/>
     </row>
     <row r="154" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A154" s="167" t="str">
+      <c r="A154" s="142" t="str">
         <f>IF(AND(E154=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E152) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B154" s="138"/>
       <c r="C154" s="138"/>
       <c r="D154" s="139"/>
-      <c r="E154" s="168"/>
+      <c r="E154" s="143"/>
       <c r="F154" s="140" t="s">
         <v>18</v>
       </c>
@@ -61186,14 +61194,14 @@
       <c r="I154" s="141"/>
     </row>
     <row r="155" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A155" s="167" t="str">
+      <c r="A155" s="142" t="str">
         <f>IF(AND(E155=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E153) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B155" s="138"/>
       <c r="C155" s="138"/>
       <c r="D155" s="139"/>
-      <c r="E155" s="168"/>
+      <c r="E155" s="143"/>
       <c r="F155" s="140" t="s">
         <v>18</v>
       </c>
@@ -61205,14 +61213,14 @@
       <c r="I155" s="141"/>
     </row>
     <row r="156" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A156" s="167" t="str">
+      <c r="A156" s="142" t="str">
         <f>IF(AND(E156=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E154) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B156" s="138"/>
       <c r="C156" s="138"/>
       <c r="D156" s="139"/>
-      <c r="E156" s="168"/>
+      <c r="E156" s="143"/>
       <c r="F156" s="140" t="s">
         <v>18</v>
       </c>
@@ -61224,14 +61232,14 @@
       <c r="I156" s="141"/>
     </row>
     <row r="157" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A157" s="167" t="str">
+      <c r="A157" s="142" t="str">
         <f>IF(AND(E157=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E155) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B157" s="138"/>
       <c r="C157" s="138"/>
       <c r="D157" s="139"/>
-      <c r="E157" s="168"/>
+      <c r="E157" s="143"/>
       <c r="F157" s="140" t="s">
         <v>18</v>
       </c>
@@ -61243,14 +61251,14 @@
       <c r="I157" s="141"/>
     </row>
     <row r="158" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A158" s="167" t="str">
+      <c r="A158" s="142" t="str">
         <f>IF(AND(E158=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E156) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B158" s="138"/>
       <c r="C158" s="138"/>
       <c r="D158" s="139"/>
-      <c r="E158" s="168"/>
+      <c r="E158" s="143"/>
       <c r="F158" s="140" t="s">
         <v>18</v>
       </c>
@@ -61262,14 +61270,14 @@
       <c r="I158" s="141"/>
     </row>
     <row r="159" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A159" s="167" t="str">
+      <c r="A159" s="142" t="str">
         <f>IF(AND(E159=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E157) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B159" s="138"/>
       <c r="C159" s="138"/>
       <c r="D159" s="139"/>
-      <c r="E159" s="168"/>
+      <c r="E159" s="143"/>
       <c r="F159" s="140" t="s">
         <v>18</v>
       </c>
@@ -61281,14 +61289,14 @@
       <c r="I159" s="141"/>
     </row>
     <row r="160" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A160" s="167" t="str">
+      <c r="A160" s="142" t="str">
         <f>IF(AND(E160=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E158) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B160" s="138"/>
       <c r="C160" s="138"/>
       <c r="D160" s="139"/>
-      <c r="E160" s="168"/>
+      <c r="E160" s="143"/>
       <c r="F160" s="140" t="s">
         <v>18</v>
       </c>
@@ -61300,14 +61308,14 @@
       <c r="I160" s="141"/>
     </row>
     <row r="161" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A161" s="167" t="str">
+      <c r="A161" s="142" t="str">
         <f>IF(AND(E161=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E159) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B161" s="138"/>
       <c r="C161" s="138"/>
       <c r="D161" s="139"/>
-      <c r="E161" s="168"/>
+      <c r="E161" s="143"/>
       <c r="F161" s="140" t="s">
         <v>18</v>
       </c>
@@ -61319,14 +61327,14 @@
       <c r="I161" s="141"/>
     </row>
     <row r="162" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A162" s="167" t="str">
+      <c r="A162" s="142" t="str">
         <f>IF(AND(E162=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E160) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B162" s="138"/>
       <c r="C162" s="138"/>
       <c r="D162" s="139"/>
-      <c r="E162" s="168"/>
+      <c r="E162" s="143"/>
       <c r="F162" s="140" t="s">
         <v>18</v>
       </c>
@@ -61338,14 +61346,14 @@
       <c r="I162" s="141"/>
     </row>
     <row r="163" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A163" s="167" t="str">
+      <c r="A163" s="142" t="str">
         <f>IF(AND(E163=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E161) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B163" s="138"/>
       <c r="C163" s="138"/>
       <c r="D163" s="139"/>
-      <c r="E163" s="168"/>
+      <c r="E163" s="143"/>
       <c r="F163" s="140" t="s">
         <v>18</v>
       </c>
@@ -61357,14 +61365,14 @@
       <c r="I163" s="141"/>
     </row>
     <row r="164" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A164" s="167" t="str">
+      <c r="A164" s="142" t="str">
         <f>IF(AND(E164=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E162) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B164" s="138"/>
       <c r="C164" s="138"/>
       <c r="D164" s="139"/>
-      <c r="E164" s="168"/>
+      <c r="E164" s="143"/>
       <c r="F164" s="140" t="s">
         <v>18</v>
       </c>
@@ -61376,14 +61384,14 @@
       <c r="I164" s="141"/>
     </row>
     <row r="165" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A165" s="167" t="str">
+      <c r="A165" s="142" t="str">
         <f>IF(AND(E165=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E163) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B165" s="138"/>
       <c r="C165" s="138"/>
       <c r="D165" s="139"/>
-      <c r="E165" s="168"/>
+      <c r="E165" s="143"/>
       <c r="F165" s="140" t="s">
         <v>18</v>
       </c>
@@ -61395,14 +61403,14 @@
       <c r="I165" s="141"/>
     </row>
     <row r="166" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A166" s="167" t="str">
+      <c r="A166" s="142" t="str">
         <f>IF(AND(E166=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E164) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B166" s="138"/>
       <c r="C166" s="138"/>
       <c r="D166" s="139"/>
-      <c r="E166" s="168"/>
+      <c r="E166" s="143"/>
       <c r="F166" s="140" t="s">
         <v>18</v>
       </c>
@@ -61414,14 +61422,14 @@
       <c r="I166" s="141"/>
     </row>
     <row r="167" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A167" s="167" t="str">
+      <c r="A167" s="142" t="str">
         <f>IF(AND(E167=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E165) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B167" s="138"/>
       <c r="C167" s="138"/>
       <c r="D167" s="139"/>
-      <c r="E167" s="168"/>
+      <c r="E167" s="143"/>
       <c r="F167" s="140" t="s">
         <v>18</v>
       </c>
@@ -61433,14 +61441,14 @@
       <c r="I167" s="141"/>
     </row>
     <row r="168" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A168" s="167" t="str">
+      <c r="A168" s="142" t="str">
         <f>IF(AND(E168=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E166) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B168" s="138"/>
       <c r="C168" s="138"/>
       <c r="D168" s="139"/>
-      <c r="E168" s="168"/>
+      <c r="E168" s="143"/>
       <c r="F168" s="140" t="s">
         <v>18</v>
       </c>
@@ -61452,14 +61460,14 @@
       <c r="I168" s="141"/>
     </row>
     <row r="169" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A169" s="167" t="str">
+      <c r="A169" s="142" t="str">
         <f>IF(AND(E169=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E167) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B169" s="138"/>
       <c r="C169" s="138"/>
       <c r="D169" s="139"/>
-      <c r="E169" s="168"/>
+      <c r="E169" s="143"/>
       <c r="F169" s="140" t="s">
         <v>18</v>
       </c>
@@ -61471,14 +61479,14 @@
       <c r="I169" s="141"/>
     </row>
     <row r="170" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A170" s="167" t="str">
+      <c r="A170" s="142" t="str">
         <f>IF(AND(E170=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E168) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B170" s="138"/>
       <c r="C170" s="138"/>
       <c r="D170" s="139"/>
-      <c r="E170" s="168"/>
+      <c r="E170" s="143"/>
       <c r="F170" s="140" t="s">
         <v>18</v>
       </c>
@@ -61490,14 +61498,14 @@
       <c r="I170" s="141"/>
     </row>
     <row r="171" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A171" s="167" t="str">
+      <c r="A171" s="142" t="str">
         <f>IF(AND(E171=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E169) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B171" s="138"/>
       <c r="C171" s="138"/>
       <c r="D171" s="139"/>
-      <c r="E171" s="168"/>
+      <c r="E171" s="143"/>
       <c r="F171" s="140" t="s">
         <v>18</v>
       </c>
@@ -61509,14 +61517,14 @@
       <c r="I171" s="141"/>
     </row>
     <row r="172" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A172" s="167" t="str">
+      <c r="A172" s="142" t="str">
         <f>IF(AND(E172=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E170) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B172" s="138"/>
       <c r="C172" s="138"/>
       <c r="D172" s="139"/>
-      <c r="E172" s="168"/>
+      <c r="E172" s="143"/>
       <c r="F172" s="140" t="s">
         <v>18</v>
       </c>
@@ -61528,14 +61536,14 @@
       <c r="I172" s="141"/>
     </row>
     <row r="173" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A173" s="167" t="str">
+      <c r="A173" s="142" t="str">
         <f>IF(AND(E173=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E171) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B173" s="138"/>
       <c r="C173" s="138"/>
       <c r="D173" s="139"/>
-      <c r="E173" s="168"/>
+      <c r="E173" s="143"/>
       <c r="F173" s="140" t="s">
         <v>18</v>
       </c>
@@ -61547,14 +61555,14 @@
       <c r="I173" s="141"/>
     </row>
     <row r="174" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A174" s="167" t="str">
+      <c r="A174" s="142" t="str">
         <f>IF(AND(E174=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E172) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B174" s="138"/>
       <c r="C174" s="138"/>
       <c r="D174" s="139"/>
-      <c r="E174" s="168"/>
+      <c r="E174" s="143"/>
       <c r="F174" s="140" t="s">
         <v>18</v>
       </c>
@@ -61566,14 +61574,14 @@
       <c r="I174" s="141"/>
     </row>
     <row r="175" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A175" s="167" t="str">
+      <c r="A175" s="142" t="str">
         <f>IF(AND(E175=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E173) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B175" s="138"/>
       <c r="C175" s="138"/>
       <c r="D175" s="139"/>
-      <c r="E175" s="168"/>
+      <c r="E175" s="143"/>
       <c r="F175" s="140" t="s">
         <v>18</v>
       </c>
@@ -61585,14 +61593,14 @@
       <c r="I175" s="141"/>
     </row>
     <row r="176" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A176" s="167" t="str">
+      <c r="A176" s="142" t="str">
         <f>IF(AND(E176=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E174) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B176" s="138"/>
       <c r="C176" s="138"/>
       <c r="D176" s="139"/>
-      <c r="E176" s="168"/>
+      <c r="E176" s="143"/>
       <c r="F176" s="140" t="s">
         <v>18</v>
       </c>
@@ -61604,14 +61612,14 @@
       <c r="I176" s="141"/>
     </row>
     <row r="177" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A177" s="167" t="str">
+      <c r="A177" s="142" t="str">
         <f>IF(AND(E177=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E175) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B177" s="138"/>
       <c r="C177" s="138"/>
       <c r="D177" s="139"/>
-      <c r="E177" s="168"/>
+      <c r="E177" s="143"/>
       <c r="F177" s="140" t="s">
         <v>18</v>
       </c>
@@ -61623,14 +61631,14 @@
       <c r="I177" s="141"/>
     </row>
     <row r="178" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A178" s="167" t="str">
+      <c r="A178" s="142" t="str">
         <f>IF(AND(E178=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E176) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B178" s="138"/>
       <c r="C178" s="138"/>
       <c r="D178" s="139"/>
-      <c r="E178" s="168"/>
+      <c r="E178" s="143"/>
       <c r="F178" s="140" t="s">
         <v>18</v>
       </c>
@@ -61642,14 +61650,14 @@
       <c r="I178" s="141"/>
     </row>
     <row r="179" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A179" s="167" t="str">
+      <c r="A179" s="142" t="str">
         <f>IF(AND(E179=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E177) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B179" s="138"/>
       <c r="C179" s="138"/>
       <c r="D179" s="139"/>
-      <c r="E179" s="168"/>
+      <c r="E179" s="143"/>
       <c r="F179" s="140" t="s">
         <v>18</v>
       </c>
@@ -61661,14 +61669,14 @@
       <c r="I179" s="141"/>
     </row>
     <row r="180" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A180" s="167" t="str">
+      <c r="A180" s="142" t="str">
         <f>IF(AND(E180=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E178) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B180" s="138"/>
       <c r="C180" s="138"/>
       <c r="D180" s="139"/>
-      <c r="E180" s="168"/>
+      <c r="E180" s="143"/>
       <c r="F180" s="140" t="s">
         <v>18</v>
       </c>
@@ -61680,14 +61688,14 @@
       <c r="I180" s="141"/>
     </row>
     <row r="181" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A181" s="167" t="str">
+      <c r="A181" s="142" t="str">
         <f>IF(AND(E181=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E179) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B181" s="138"/>
       <c r="C181" s="138"/>
       <c r="D181" s="139"/>
-      <c r="E181" s="168"/>
+      <c r="E181" s="143"/>
       <c r="F181" s="140" t="s">
         <v>18</v>
       </c>
@@ -61699,14 +61707,14 @@
       <c r="I181" s="141"/>
     </row>
     <row r="182" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A182" s="167" t="str">
+      <c r="A182" s="142" t="str">
         <f>IF(AND(E182=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E180) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B182" s="138"/>
       <c r="C182" s="138"/>
       <c r="D182" s="139"/>
-      <c r="E182" s="168"/>
+      <c r="E182" s="143"/>
       <c r="F182" s="140" t="s">
         <v>18</v>
       </c>
@@ -61718,14 +61726,14 @@
       <c r="I182" s="141"/>
     </row>
     <row r="183" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A183" s="167" t="str">
+      <c r="A183" s="142" t="str">
         <f>IF(AND(E183=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E181) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B183" s="138"/>
       <c r="C183" s="138"/>
       <c r="D183" s="139"/>
-      <c r="E183" s="168"/>
+      <c r="E183" s="143"/>
       <c r="F183" s="140" t="s">
         <v>18</v>
       </c>
@@ -61737,14 +61745,14 @@
       <c r="I183" s="141"/>
     </row>
     <row r="184" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A184" s="167" t="str">
+      <c r="A184" s="142" t="str">
         <f>IF(AND(E184=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E182) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B184" s="138"/>
       <c r="C184" s="138"/>
       <c r="D184" s="139"/>
-      <c r="E184" s="168"/>
+      <c r="E184" s="143"/>
       <c r="F184" s="140" t="s">
         <v>18</v>
       </c>
@@ -61756,14 +61764,14 @@
       <c r="I184" s="141"/>
     </row>
     <row r="185" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A185" s="167" t="str">
+      <c r="A185" s="142" t="str">
         <f>IF(AND(E185=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E183) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B185" s="138"/>
       <c r="C185" s="138"/>
       <c r="D185" s="139"/>
-      <c r="E185" s="168"/>
+      <c r="E185" s="143"/>
       <c r="F185" s="140" t="s">
         <v>18</v>
       </c>
@@ -61775,14 +61783,14 @@
       <c r="I185" s="141"/>
     </row>
     <row r="186" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A186" s="167" t="str">
+      <c r="A186" s="142" t="str">
         <f>IF(AND(E186=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E184) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B186" s="138"/>
       <c r="C186" s="138"/>
       <c r="D186" s="139"/>
-      <c r="E186" s="168"/>
+      <c r="E186" s="143"/>
       <c r="F186" s="140" t="s">
         <v>18</v>
       </c>
@@ -61794,14 +61802,14 @@
       <c r="I186" s="141"/>
     </row>
     <row r="187" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A187" s="167" t="str">
+      <c r="A187" s="142" t="str">
         <f>IF(AND(E187=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E185) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B187" s="138"/>
       <c r="C187" s="138"/>
       <c r="D187" s="139"/>
-      <c r="E187" s="168"/>
+      <c r="E187" s="143"/>
       <c r="F187" s="140" t="s">
         <v>18</v>
       </c>
@@ -61813,14 +61821,14 @@
       <c r="I187" s="141"/>
     </row>
     <row r="188" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A188" s="167" t="str">
+      <c r="A188" s="142" t="str">
         <f>IF(AND(E188=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E186) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B188" s="138"/>
       <c r="C188" s="138"/>
       <c r="D188" s="139"/>
-      <c r="E188" s="168"/>
+      <c r="E188" s="143"/>
       <c r="F188" s="140" t="s">
         <v>18</v>
       </c>
@@ -61832,14 +61840,14 @@
       <c r="I188" s="141"/>
     </row>
     <row r="189" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A189" s="167" t="str">
+      <c r="A189" s="142" t="str">
         <f>IF(AND(E189=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E187) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B189" s="138"/>
       <c r="C189" s="138"/>
       <c r="D189" s="139"/>
-      <c r="E189" s="168"/>
+      <c r="E189" s="143"/>
       <c r="F189" s="140" t="s">
         <v>18</v>
       </c>
@@ -61851,14 +61859,14 @@
       <c r="I189" s="141"/>
     </row>
     <row r="190" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A190" s="167" t="str">
+      <c r="A190" s="142" t="str">
         <f>IF(AND(E190=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E188) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B190" s="138"/>
       <c r="C190" s="138"/>
       <c r="D190" s="139"/>
-      <c r="E190" s="168"/>
+      <c r="E190" s="143"/>
       <c r="F190" s="140" t="s">
         <v>18</v>
       </c>
@@ -61870,14 +61878,14 @@
       <c r="I190" s="141"/>
     </row>
     <row r="191" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A191" s="167" t="str">
+      <c r="A191" s="142" t="str">
         <f>IF(AND(E191=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E189) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B191" s="138"/>
       <c r="C191" s="138"/>
       <c r="D191" s="139"/>
-      <c r="E191" s="168"/>
+      <c r="E191" s="143"/>
       <c r="F191" s="140" t="s">
         <v>18</v>
       </c>
@@ -61889,14 +61897,14 @@
       <c r="I191" s="141"/>
     </row>
     <row r="192" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A192" s="167" t="str">
+      <c r="A192" s="142" t="str">
         <f>IF(AND(E192=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E190) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B192" s="138"/>
       <c r="C192" s="138"/>
       <c r="D192" s="139"/>
-      <c r="E192" s="168"/>
+      <c r="E192" s="143"/>
       <c r="F192" s="140" t="s">
         <v>18</v>
       </c>
@@ -61908,14 +61916,14 @@
       <c r="I192" s="141"/>
     </row>
     <row r="193" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A193" s="167" t="str">
+      <c r="A193" s="142" t="str">
         <f>IF(AND(E193=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E191) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B193" s="138"/>
       <c r="C193" s="138"/>
       <c r="D193" s="139"/>
-      <c r="E193" s="168"/>
+      <c r="E193" s="143"/>
       <c r="F193" s="140" t="s">
         <v>18</v>
       </c>
@@ -61927,14 +61935,14 @@
       <c r="I193" s="141"/>
     </row>
     <row r="194" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A194" s="167" t="str">
+      <c r="A194" s="142" t="str">
         <f>IF(AND(E194=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E192) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B194" s="138"/>
       <c r="C194" s="138"/>
       <c r="D194" s="139"/>
-      <c r="E194" s="168"/>
+      <c r="E194" s="143"/>
       <c r="F194" s="140" t="s">
         <v>18</v>
       </c>
@@ -61946,14 +61954,14 @@
       <c r="I194" s="141"/>
     </row>
     <row r="195" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A195" s="167" t="str">
+      <c r="A195" s="142" t="str">
         <f>IF(AND(E195=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E193) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B195" s="138"/>
       <c r="C195" s="138"/>
       <c r="D195" s="139"/>
-      <c r="E195" s="168"/>
+      <c r="E195" s="143"/>
       <c r="F195" s="140" t="s">
         <v>18</v>
       </c>
@@ -61965,14 +61973,14 @@
       <c r="I195" s="141"/>
     </row>
     <row r="196" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A196" s="167" t="str">
+      <c r="A196" s="142" t="str">
         <f>IF(AND(E196=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E194) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B196" s="138"/>
       <c r="C196" s="138"/>
       <c r="D196" s="139"/>
-      <c r="E196" s="168"/>
+      <c r="E196" s="143"/>
       <c r="F196" s="140" t="s">
         <v>18</v>
       </c>
@@ -61984,14 +61992,14 @@
       <c r="I196" s="141"/>
     </row>
     <row r="197" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A197" s="167" t="str">
+      <c r="A197" s="142" t="str">
         <f>IF(AND(E197=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E195) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B197" s="138"/>
       <c r="C197" s="138"/>
       <c r="D197" s="139"/>
-      <c r="E197" s="168"/>
+      <c r="E197" s="143"/>
       <c r="F197" s="140" t="s">
         <v>18</v>
       </c>
@@ -62003,14 +62011,14 @@
       <c r="I197" s="141"/>
     </row>
     <row r="198" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A198" s="167" t="str">
+      <c r="A198" s="142" t="str">
         <f>IF(AND(E198=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E196) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B198" s="138"/>
       <c r="C198" s="138"/>
       <c r="D198" s="139"/>
-      <c r="E198" s="168"/>
+      <c r="E198" s="143"/>
       <c r="F198" s="140" t="s">
         <v>18</v>
       </c>
@@ -62022,14 +62030,14 @@
       <c r="I198" s="141"/>
     </row>
     <row r="199" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A199" s="167" t="str">
+      <c r="A199" s="142" t="str">
         <f>IF(AND(E199=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E197) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B199" s="138"/>
       <c r="C199" s="138"/>
       <c r="D199" s="139"/>
-      <c r="E199" s="168"/>
+      <c r="E199" s="143"/>
       <c r="F199" s="140" t="s">
         <v>18</v>
       </c>
@@ -62041,14 +62049,14 @@
       <c r="I199" s="141"/>
     </row>
     <row r="200" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A200" s="167" t="str">
+      <c r="A200" s="142" t="str">
         <f>IF(AND(E200=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E198) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B200" s="138"/>
       <c r="C200" s="138"/>
       <c r="D200" s="139"/>
-      <c r="E200" s="168"/>
+      <c r="E200" s="143"/>
       <c r="F200" s="140" t="s">
         <v>18</v>
       </c>
@@ -62060,14 +62068,14 @@
       <c r="I200" s="141"/>
     </row>
     <row r="201" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A201" s="167" t="str">
+      <c r="A201" s="142" t="str">
         <f>IF(AND(E201=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E199) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B201" s="138"/>
       <c r="C201" s="138"/>
       <c r="D201" s="139"/>
-      <c r="E201" s="168"/>
+      <c r="E201" s="143"/>
       <c r="F201" s="140" t="s">
         <v>18</v>
       </c>
@@ -62079,14 +62087,14 @@
       <c r="I201" s="141"/>
     </row>
     <row r="202" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A202" s="167" t="str">
+      <c r="A202" s="142" t="str">
         <f>IF(AND(E202=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E200) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B202" s="138"/>
       <c r="C202" s="138"/>
       <c r="D202" s="139"/>
-      <c r="E202" s="168"/>
+      <c r="E202" s="143"/>
       <c r="F202" s="140" t="s">
         <v>18</v>
       </c>
@@ -62098,14 +62106,14 @@
       <c r="I202" s="141"/>
     </row>
     <row r="203" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A203" s="167" t="str">
+      <c r="A203" s="142" t="str">
         <f>IF(AND(E203=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E201) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B203" s="138"/>
       <c r="C203" s="138"/>
       <c r="D203" s="139"/>
-      <c r="E203" s="168"/>
+      <c r="E203" s="143"/>
       <c r="F203" s="140" t="s">
         <v>18</v>
       </c>
@@ -62117,14 +62125,14 @@
       <c r="I203" s="141"/>
     </row>
     <row r="204" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A204" s="167" t="str">
+      <c r="A204" s="142" t="str">
         <f>IF(AND(E204=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E202) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B204" s="138"/>
       <c r="C204" s="138"/>
       <c r="D204" s="139"/>
-      <c r="E204" s="168"/>
+      <c r="E204" s="143"/>
       <c r="F204" s="140" t="s">
         <v>18</v>
       </c>
@@ -62136,14 +62144,14 @@
       <c r="I204" s="141"/>
     </row>
     <row r="205" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A205" s="167" t="str">
+      <c r="A205" s="142" t="str">
         <f>IF(AND(E205=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E203) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B205" s="138"/>
       <c r="C205" s="138"/>
       <c r="D205" s="139"/>
-      <c r="E205" s="168"/>
+      <c r="E205" s="143"/>
       <c r="F205" s="140" t="s">
         <v>18</v>
       </c>
@@ -62155,14 +62163,14 @@
       <c r="I205" s="141"/>
     </row>
     <row r="206" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A206" s="167" t="str">
+      <c r="A206" s="142" t="str">
         <f>IF(AND(E206=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E204) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B206" s="138"/>
       <c r="C206" s="138"/>
       <c r="D206" s="139"/>
-      <c r="E206" s="168"/>
+      <c r="E206" s="143"/>
       <c r="F206" s="140" t="s">
         <v>18</v>
       </c>
@@ -62174,14 +62182,14 @@
       <c r="I206" s="141"/>
     </row>
     <row r="207" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A207" s="167" t="str">
+      <c r="A207" s="142" t="str">
         <f>IF(AND(E207=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E205) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B207" s="138"/>
       <c r="C207" s="138"/>
       <c r="D207" s="139"/>
-      <c r="E207" s="168"/>
+      <c r="E207" s="143"/>
       <c r="F207" s="140" t="s">
         <v>18</v>
       </c>
@@ -62193,14 +62201,14 @@
       <c r="I207" s="141"/>
     </row>
     <row r="208" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A208" s="167" t="str">
+      <c r="A208" s="142" t="str">
         <f>IF(AND(E208=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E206) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B208" s="138"/>
       <c r="C208" s="138"/>
       <c r="D208" s="139"/>
-      <c r="E208" s="168"/>
+      <c r="E208" s="143"/>
       <c r="F208" s="140" t="s">
         <v>18</v>
       </c>
@@ -62212,14 +62220,14 @@
       <c r="I208" s="141"/>
     </row>
     <row r="209" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A209" s="167" t="str">
+      <c r="A209" s="142" t="str">
         <f>IF(AND(E209=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E207) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B209" s="138"/>
       <c r="C209" s="138"/>
       <c r="D209" s="139"/>
-      <c r="E209" s="168"/>
+      <c r="E209" s="143"/>
       <c r="F209" s="140" t="s">
         <v>18</v>
       </c>
@@ -62231,14 +62239,14 @@
       <c r="I209" s="141"/>
     </row>
     <row r="210" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A210" s="167" t="str">
+      <c r="A210" s="142" t="str">
         <f>IF(AND(E210=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E208) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B210" s="138"/>
       <c r="C210" s="138"/>
       <c r="D210" s="139"/>
-      <c r="E210" s="168"/>
+      <c r="E210" s="143"/>
       <c r="F210" s="140" t="s">
         <v>18</v>
       </c>
@@ -62250,14 +62258,14 @@
       <c r="I210" s="141"/>
     </row>
     <row r="211" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A211" s="167" t="str">
+      <c r="A211" s="142" t="str">
         <f>IF(AND(E211=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E209) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B211" s="138"/>
       <c r="C211" s="138"/>
       <c r="D211" s="139"/>
-      <c r="E211" s="168"/>
+      <c r="E211" s="143"/>
       <c r="F211" s="140" t="s">
         <v>18</v>
       </c>
@@ -62269,14 +62277,14 @@
       <c r="I211" s="141"/>
     </row>
     <row r="212" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A212" s="167" t="str">
+      <c r="A212" s="142" t="str">
         <f>IF(AND(E212=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E210) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B212" s="138"/>
       <c r="C212" s="138"/>
       <c r="D212" s="139"/>
-      <c r="E212" s="168"/>
+      <c r="E212" s="143"/>
       <c r="F212" s="140" t="s">
         <v>18</v>
       </c>
@@ -62288,14 +62296,14 @@
       <c r="I212" s="141"/>
     </row>
     <row r="213" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A213" s="167" t="str">
+      <c r="A213" s="142" t="str">
         <f>IF(AND(E213=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E211) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B213" s="138"/>
       <c r="C213" s="138"/>
       <c r="D213" s="139"/>
-      <c r="E213" s="168"/>
+      <c r="E213" s="143"/>
       <c r="F213" s="140" t="s">
         <v>18</v>
       </c>
@@ -62307,14 +62315,14 @@
       <c r="I213" s="141"/>
     </row>
     <row r="214" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A214" s="167" t="str">
+      <c r="A214" s="142" t="str">
         <f>IF(AND(E214=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E212) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B214" s="138"/>
       <c r="C214" s="138"/>
       <c r="D214" s="139"/>
-      <c r="E214" s="168"/>
+      <c r="E214" s="143"/>
       <c r="F214" s="140" t="s">
         <v>18</v>
       </c>
@@ -62326,14 +62334,14 @@
       <c r="I214" s="141"/>
     </row>
     <row r="215" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A215" s="167" t="str">
+      <c r="A215" s="142" t="str">
         <f>IF(AND(E215=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E213) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B215" s="138"/>
       <c r="C215" s="138"/>
       <c r="D215" s="139"/>
-      <c r="E215" s="168"/>
+      <c r="E215" s="143"/>
       <c r="F215" s="140" t="s">
         <v>18</v>
       </c>
@@ -62345,14 +62353,14 @@
       <c r="I215" s="141"/>
     </row>
     <row r="216" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A216" s="167" t="str">
+      <c r="A216" s="142" t="str">
         <f>IF(AND(E216=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E214) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B216" s="138"/>
       <c r="C216" s="138"/>
       <c r="D216" s="139"/>
-      <c r="E216" s="168"/>
+      <c r="E216" s="143"/>
       <c r="F216" s="140" t="s">
         <v>18</v>
       </c>
@@ -62364,14 +62372,14 @@
       <c r="I216" s="141"/>
     </row>
     <row r="217" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A217" s="167" t="str">
+      <c r="A217" s="142" t="str">
         <f>IF(AND(E217=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E215) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B217" s="138"/>
       <c r="C217" s="138"/>
       <c r="D217" s="139"/>
-      <c r="E217" s="168"/>
+      <c r="E217" s="143"/>
       <c r="F217" s="140" t="s">
         <v>18</v>
       </c>
@@ -62383,14 +62391,14 @@
       <c r="I217" s="141"/>
     </row>
     <row r="218" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A218" s="167" t="str">
+      <c r="A218" s="142" t="str">
         <f>IF(AND(E218=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E216) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B218" s="138"/>
       <c r="C218" s="138"/>
       <c r="D218" s="139"/>
-      <c r="E218" s="168"/>
+      <c r="E218" s="143"/>
       <c r="F218" s="140" t="s">
         <v>18</v>
       </c>
@@ -62402,14 +62410,14 @@
       <c r="I218" s="141"/>
     </row>
     <row r="219" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A219" s="167" t="str">
+      <c r="A219" s="142" t="str">
         <f>IF(AND(E219=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E217) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B219" s="138"/>
       <c r="C219" s="138"/>
       <c r="D219" s="139"/>
-      <c r="E219" s="168"/>
+      <c r="E219" s="143"/>
       <c r="F219" s="140" t="s">
         <v>18</v>
       </c>
@@ -62421,14 +62429,14 @@
       <c r="I219" s="141"/>
     </row>
     <row r="220" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A220" s="167" t="str">
+      <c r="A220" s="142" t="str">
         <f>IF(AND(E220=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E218) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B220" s="138"/>
       <c r="C220" s="138"/>
       <c r="D220" s="139"/>
-      <c r="E220" s="168"/>
+      <c r="E220" s="143"/>
       <c r="F220" s="140" t="s">
         <v>18</v>
       </c>
@@ -62440,14 +62448,14 @@
       <c r="I220" s="141"/>
     </row>
     <row r="221" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A221" s="167" t="str">
+      <c r="A221" s="142" t="str">
         <f>IF(AND(E221=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E219) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B221" s="138"/>
       <c r="C221" s="138"/>
       <c r="D221" s="139"/>
-      <c r="E221" s="168"/>
+      <c r="E221" s="143"/>
       <c r="F221" s="140" t="s">
         <v>18</v>
       </c>
@@ -62459,14 +62467,14 @@
       <c r="I221" s="141"/>
     </row>
     <row r="222" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A222" s="167" t="str">
+      <c r="A222" s="142" t="str">
         <f>IF(AND(E222=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E220) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B222" s="138"/>
       <c r="C222" s="138"/>
       <c r="D222" s="139"/>
-      <c r="E222" s="168"/>
+      <c r="E222" s="143"/>
       <c r="F222" s="140" t="s">
         <v>18</v>
       </c>
@@ -62478,14 +62486,14 @@
       <c r="I222" s="141"/>
     </row>
     <row r="223" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A223" s="167" t="str">
+      <c r="A223" s="142" t="str">
         <f>IF(AND(E223=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E221) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B223" s="138"/>
       <c r="C223" s="138"/>
       <c r="D223" s="139"/>
-      <c r="E223" s="168"/>
+      <c r="E223" s="143"/>
       <c r="F223" s="140" t="s">
         <v>18</v>
       </c>
@@ -62497,14 +62505,14 @@
       <c r="I223" s="141"/>
     </row>
     <row r="224" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A224" s="167" t="str">
+      <c r="A224" s="142" t="str">
         <f>IF(AND(E224=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E222) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B224" s="138"/>
       <c r="C224" s="138"/>
       <c r="D224" s="139"/>
-      <c r="E224" s="168"/>
+      <c r="E224" s="143"/>
       <c r="F224" s="140" t="s">
         <v>18</v>
       </c>
@@ -62516,14 +62524,14 @@
       <c r="I224" s="141"/>
     </row>
     <row r="225" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A225" s="167" t="str">
+      <c r="A225" s="142" t="str">
         <f>IF(AND(E225=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E223) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B225" s="138"/>
       <c r="C225" s="138"/>
       <c r="D225" s="139"/>
-      <c r="E225" s="168"/>
+      <c r="E225" s="143"/>
       <c r="F225" s="140" t="s">
         <v>18</v>
       </c>
@@ -62535,14 +62543,14 @@
       <c r="I225" s="141"/>
     </row>
     <row r="226" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A226" s="167" t="str">
+      <c r="A226" s="142" t="str">
         <f>IF(AND(E226=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E224) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B226" s="138"/>
       <c r="C226" s="138"/>
       <c r="D226" s="139"/>
-      <c r="E226" s="168"/>
+      <c r="E226" s="143"/>
       <c r="F226" s="140" t="s">
         <v>18</v>
       </c>
@@ -62554,14 +62562,14 @@
       <c r="I226" s="141"/>
     </row>
     <row r="227" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A227" s="167" t="str">
+      <c r="A227" s="142" t="str">
         <f>IF(AND(E227=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E225) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B227" s="138"/>
       <c r="C227" s="138"/>
       <c r="D227" s="139"/>
-      <c r="E227" s="168"/>
+      <c r="E227" s="143"/>
       <c r="F227" s="140" t="s">
         <v>18</v>
       </c>
@@ -62573,14 +62581,14 @@
       <c r="I227" s="141"/>
     </row>
     <row r="228" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A228" s="167" t="str">
+      <c r="A228" s="142" t="str">
         <f>IF(AND(E228=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E226) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B228" s="138"/>
       <c r="C228" s="138"/>
       <c r="D228" s="139"/>
-      <c r="E228" s="168"/>
+      <c r="E228" s="143"/>
       <c r="F228" s="140" t="s">
         <v>18</v>
       </c>
@@ -62592,14 +62600,14 @@
       <c r="I228" s="141"/>
     </row>
     <row r="229" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A229" s="167" t="str">
+      <c r="A229" s="142" t="str">
         <f>IF(AND(E229=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E227) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B229" s="138"/>
       <c r="C229" s="138"/>
       <c r="D229" s="139"/>
-      <c r="E229" s="168"/>
+      <c r="E229" s="143"/>
       <c r="F229" s="140" t="s">
         <v>18</v>
       </c>
@@ -62611,14 +62619,14 @@
       <c r="I229" s="141"/>
     </row>
     <row r="230" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A230" s="167" t="str">
+      <c r="A230" s="142" t="str">
         <f>IF(AND(E230=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E228) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B230" s="138"/>
       <c r="C230" s="138"/>
       <c r="D230" s="139"/>
-      <c r="E230" s="168"/>
+      <c r="E230" s="143"/>
       <c r="F230" s="140" t="s">
         <v>18</v>
       </c>
@@ -62630,14 +62638,14 @@
       <c r="I230" s="141"/>
     </row>
     <row r="231" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A231" s="167" t="str">
+      <c r="A231" s="142" t="str">
         <f>IF(AND(E231=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E229) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B231" s="138"/>
       <c r="C231" s="138"/>
       <c r="D231" s="139"/>
-      <c r="E231" s="168"/>
+      <c r="E231" s="143"/>
       <c r="F231" s="140" t="s">
         <v>18</v>
       </c>
@@ -62649,14 +62657,14 @@
       <c r="I231" s="141"/>
     </row>
     <row r="232" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A232" s="167" t="str">
+      <c r="A232" s="142" t="str">
         <f>IF(AND(E232=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E230) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B232" s="138"/>
       <c r="C232" s="138"/>
       <c r="D232" s="139"/>
-      <c r="E232" s="168"/>
+      <c r="E232" s="143"/>
       <c r="F232" s="140" t="s">
         <v>18</v>
       </c>
@@ -62668,14 +62676,14 @@
       <c r="I232" s="141"/>
     </row>
     <row r="233" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A233" s="167" t="str">
+      <c r="A233" s="142" t="str">
         <f>IF(AND(E233=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E231) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B233" s="138"/>
       <c r="C233" s="138"/>
       <c r="D233" s="139"/>
-      <c r="E233" s="168"/>
+      <c r="E233" s="143"/>
       <c r="F233" s="140" t="s">
         <v>18</v>
       </c>
@@ -62687,14 +62695,14 @@
       <c r="I233" s="141"/>
     </row>
     <row r="234" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A234" s="167" t="str">
+      <c r="A234" s="142" t="str">
         <f>IF(AND(E234=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E232) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B234" s="138"/>
       <c r="C234" s="138"/>
       <c r="D234" s="139"/>
-      <c r="E234" s="168"/>
+      <c r="E234" s="143"/>
       <c r="F234" s="140" t="s">
         <v>18</v>
       </c>
@@ -62706,14 +62714,14 @@
       <c r="I234" s="141"/>
     </row>
     <row r="235" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A235" s="167" t="str">
+      <c r="A235" s="142" t="str">
         <f>IF(AND(E235=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E233) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B235" s="138"/>
       <c r="C235" s="138"/>
       <c r="D235" s="139"/>
-      <c r="E235" s="168"/>
+      <c r="E235" s="143"/>
       <c r="F235" s="140" t="s">
         <v>18</v>
       </c>
@@ -62725,14 +62733,14 @@
       <c r="I235" s="141"/>
     </row>
     <row r="236" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A236" s="167" t="str">
+      <c r="A236" s="142" t="str">
         <f>IF(AND(E236=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E234) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B236" s="138"/>
       <c r="C236" s="138"/>
       <c r="D236" s="139"/>
-      <c r="E236" s="168"/>
+      <c r="E236" s="143"/>
       <c r="F236" s="140" t="s">
         <v>18</v>
       </c>
@@ -62744,14 +62752,14 @@
       <c r="I236" s="141"/>
     </row>
     <row r="237" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A237" s="167" t="str">
+      <c r="A237" s="142" t="str">
         <f>IF(AND(E237=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E235) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B237" s="138"/>
       <c r="C237" s="138"/>
       <c r="D237" s="139"/>
-      <c r="E237" s="168"/>
+      <c r="E237" s="143"/>
       <c r="F237" s="140" t="s">
         <v>18</v>
       </c>
@@ -62763,14 +62771,14 @@
       <c r="I237" s="141"/>
     </row>
     <row r="238" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A238" s="167" t="str">
+      <c r="A238" s="142" t="str">
         <f>IF(AND(E238=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E236) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B238" s="138"/>
       <c r="C238" s="138"/>
       <c r="D238" s="139"/>
-      <c r="E238" s="168"/>
+      <c r="E238" s="143"/>
       <c r="F238" s="140" t="s">
         <v>18</v>
       </c>
@@ -62782,14 +62790,14 @@
       <c r="I238" s="141"/>
     </row>
     <row r="239" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A239" s="167" t="str">
+      <c r="A239" s="142" t="str">
         <f>IF(AND(E239=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E237) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B239" s="138"/>
       <c r="C239" s="138"/>
       <c r="D239" s="139"/>
-      <c r="E239" s="168"/>
+      <c r="E239" s="143"/>
       <c r="F239" s="140" t="s">
         <v>18</v>
       </c>
@@ -62801,14 +62809,14 @@
       <c r="I239" s="141"/>
     </row>
     <row r="240" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A240" s="167" t="str">
+      <c r="A240" s="142" t="str">
         <f>IF(AND(E240=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E238) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B240" s="138"/>
       <c r="C240" s="138"/>
       <c r="D240" s="139"/>
-      <c r="E240" s="168"/>
+      <c r="E240" s="143"/>
       <c r="F240" s="140" t="s">
         <v>18</v>
       </c>
@@ -62820,14 +62828,14 @@
       <c r="I240" s="141"/>
     </row>
     <row r="241" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A241" s="167" t="str">
+      <c r="A241" s="142" t="str">
         <f>IF(AND(E241=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E239) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B241" s="138"/>
       <c r="C241" s="138"/>
       <c r="D241" s="139"/>
-      <c r="E241" s="168"/>
+      <c r="E241" s="143"/>
       <c r="F241" s="140" t="s">
         <v>18</v>
       </c>
@@ -62839,14 +62847,14 @@
       <c r="I241" s="141"/>
     </row>
     <row r="242" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A242" s="167" t="str">
+      <c r="A242" s="142" t="str">
         <f>IF(AND(E242=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E240) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B242" s="138"/>
       <c r="C242" s="138"/>
       <c r="D242" s="139"/>
-      <c r="E242" s="168"/>
+      <c r="E242" s="143"/>
       <c r="F242" s="140" t="s">
         <v>18</v>
       </c>
@@ -62858,14 +62866,14 @@
       <c r="I242" s="141"/>
     </row>
     <row r="243" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A243" s="167" t="str">
+      <c r="A243" s="142" t="str">
         <f>IF(AND(E243=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E241) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B243" s="138"/>
       <c r="C243" s="138"/>
       <c r="D243" s="139"/>
-      <c r="E243" s="168"/>
+      <c r="E243" s="143"/>
       <c r="F243" s="140" t="s">
         <v>18</v>
       </c>
@@ -62877,14 +62885,14 @@
       <c r="I243" s="141"/>
     </row>
     <row r="244" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A244" s="167" t="str">
+      <c r="A244" s="142" t="str">
         <f>IF(AND(E244=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E242) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B244" s="138"/>
       <c r="C244" s="138"/>
       <c r="D244" s="139"/>
-      <c r="E244" s="168"/>
+      <c r="E244" s="143"/>
       <c r="F244" s="140" t="s">
         <v>18</v>
       </c>
@@ -62896,14 +62904,14 @@
       <c r="I244" s="141"/>
     </row>
     <row r="245" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A245" s="167" t="str">
+      <c r="A245" s="142" t="str">
         <f>IF(AND(E245=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E243) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B245" s="138"/>
       <c r="C245" s="138"/>
       <c r="D245" s="139"/>
-      <c r="E245" s="168"/>
+      <c r="E245" s="143"/>
       <c r="F245" s="140" t="s">
         <v>18</v>
       </c>
@@ -62915,14 +62923,14 @@
       <c r="I245" s="141"/>
     </row>
     <row r="246" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A246" s="167" t="str">
+      <c r="A246" s="142" t="str">
         <f>IF(AND(E246=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E244) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B246" s="138"/>
       <c r="C246" s="138"/>
       <c r="D246" s="139"/>
-      <c r="E246" s="168"/>
+      <c r="E246" s="143"/>
       <c r="F246" s="140" t="s">
         <v>18</v>
       </c>
@@ -62934,14 +62942,14 @@
       <c r="I246" s="141"/>
     </row>
     <row r="247" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A247" s="167" t="str">
+      <c r="A247" s="142" t="str">
         <f>IF(AND(E247=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E245) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B247" s="138"/>
       <c r="C247" s="138"/>
       <c r="D247" s="139"/>
-      <c r="E247" s="168"/>
+      <c r="E247" s="143"/>
       <c r="F247" s="140" t="s">
         <v>18</v>
       </c>
@@ -62953,14 +62961,14 @@
       <c r="I247" s="141"/>
     </row>
     <row r="248" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A248" s="167" t="str">
+      <c r="A248" s="142" t="str">
         <f>IF(AND(E248=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E246) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B248" s="138"/>
       <c r="C248" s="138"/>
       <c r="D248" s="139"/>
-      <c r="E248" s="168"/>
+      <c r="E248" s="143"/>
       <c r="F248" s="140" t="s">
         <v>18</v>
       </c>
@@ -62972,14 +62980,14 @@
       <c r="I248" s="141"/>
     </row>
     <row r="249" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A249" s="167" t="str">
+      <c r="A249" s="142" t="str">
         <f>IF(AND(E249=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E247) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B249" s="138"/>
       <c r="C249" s="138"/>
       <c r="D249" s="139"/>
-      <c r="E249" s="168"/>
+      <c r="E249" s="143"/>
       <c r="F249" s="140" t="s">
         <v>18</v>
       </c>
@@ -62991,14 +62999,14 @@
       <c r="I249" s="141"/>
     </row>
     <row r="250" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A250" s="167" t="str">
+      <c r="A250" s="142" t="str">
         <f>IF(AND(E250=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E248) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B250" s="138"/>
       <c r="C250" s="138"/>
       <c r="D250" s="139"/>
-      <c r="E250" s="168"/>
+      <c r="E250" s="143"/>
       <c r="F250" s="140" t="s">
         <v>18</v>
       </c>
@@ -63010,14 +63018,14 @@
       <c r="I250" s="141"/>
     </row>
     <row r="251" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A251" s="167" t="str">
+      <c r="A251" s="142" t="str">
         <f>IF(AND(E251=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E249) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B251" s="138"/>
       <c r="C251" s="138"/>
       <c r="D251" s="139"/>
-      <c r="E251" s="168"/>
+      <c r="E251" s="143"/>
       <c r="F251" s="140" t="s">
         <v>18</v>
       </c>
@@ -63029,14 +63037,14 @@
       <c r="I251" s="141"/>
     </row>
     <row r="252" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A252" s="167" t="str">
+      <c r="A252" s="142" t="str">
         <f>IF(AND(E252=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E250) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B252" s="138"/>
       <c r="C252" s="138"/>
       <c r="D252" s="139"/>
-      <c r="E252" s="168"/>
+      <c r="E252" s="143"/>
       <c r="F252" s="140" t="s">
         <v>18</v>
       </c>
@@ -63048,14 +63056,14 @@
       <c r="I252" s="141"/>
     </row>
     <row r="253" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A253" s="167" t="str">
+      <c r="A253" s="142" t="str">
         <f>IF(AND(E253=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E251) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B253" s="138"/>
       <c r="C253" s="138"/>
       <c r="D253" s="139"/>
-      <c r="E253" s="168"/>
+      <c r="E253" s="143"/>
       <c r="F253" s="140" t="s">
         <v>18</v>
       </c>
@@ -63067,14 +63075,14 @@
       <c r="I253" s="141"/>
     </row>
     <row r="254" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A254" s="167" t="str">
+      <c r="A254" s="142" t="str">
         <f>IF(AND(E254=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E252) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B254" s="138"/>
       <c r="C254" s="138"/>
       <c r="D254" s="139"/>
-      <c r="E254" s="168"/>
+      <c r="E254" s="143"/>
       <c r="F254" s="140" t="s">
         <v>18</v>
       </c>
@@ -63086,14 +63094,14 @@
       <c r="I254" s="141"/>
     </row>
     <row r="255" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A255" s="167" t="str">
+      <c r="A255" s="142" t="str">
         <f>IF(AND(E255=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E253) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B255" s="138"/>
       <c r="C255" s="138"/>
       <c r="D255" s="139"/>
-      <c r="E255" s="168"/>
+      <c r="E255" s="143"/>
       <c r="F255" s="140" t="s">
         <v>18</v>
       </c>
@@ -63105,14 +63113,14 @@
       <c r="I255" s="141"/>
     </row>
     <row r="256" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A256" s="167" t="str">
+      <c r="A256" s="142" t="str">
         <f>IF(AND(E256=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E254) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B256" s="138"/>
       <c r="C256" s="138"/>
       <c r="D256" s="139"/>
-      <c r="E256" s="168"/>
+      <c r="E256" s="143"/>
       <c r="F256" s="140" t="s">
         <v>18</v>
       </c>
@@ -63124,14 +63132,14 @@
       <c r="I256" s="141"/>
     </row>
     <row r="257" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A257" s="167" t="str">
+      <c r="A257" s="142" t="str">
         <f>IF(AND(E257=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E255) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B257" s="138"/>
       <c r="C257" s="138"/>
       <c r="D257" s="139"/>
-      <c r="E257" s="168"/>
+      <c r="E257" s="143"/>
       <c r="F257" s="140" t="s">
         <v>18</v>
       </c>
@@ -63143,14 +63151,14 @@
       <c r="I257" s="141"/>
     </row>
     <row r="258" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A258" s="167" t="str">
+      <c r="A258" s="142" t="str">
         <f>IF(AND(E258=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E256) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B258" s="138"/>
       <c r="C258" s="138"/>
       <c r="D258" s="139"/>
-      <c r="E258" s="168"/>
+      <c r="E258" s="143"/>
       <c r="F258" s="140" t="s">
         <v>18</v>
       </c>
@@ -63162,14 +63170,14 @@
       <c r="I258" s="141"/>
     </row>
     <row r="259" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A259" s="167" t="str">
+      <c r="A259" s="142" t="str">
         <f>IF(AND(E259=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E257) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B259" s="138"/>
       <c r="C259" s="138"/>
       <c r="D259" s="139"/>
-      <c r="E259" s="168"/>
+      <c r="E259" s="143"/>
       <c r="F259" s="140" t="s">
         <v>18</v>
       </c>
@@ -63181,14 +63189,14 @@
       <c r="I259" s="141"/>
     </row>
     <row r="260" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A260" s="167" t="str">
+      <c r="A260" s="142" t="str">
         <f>IF(AND(E260=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E258) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B260" s="138"/>
       <c r="C260" s="138"/>
       <c r="D260" s="139"/>
-      <c r="E260" s="168"/>
+      <c r="E260" s="143"/>
       <c r="F260" s="140" t="s">
         <v>18</v>
       </c>
@@ -63200,14 +63208,14 @@
       <c r="I260" s="141"/>
     </row>
     <row r="261" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A261" s="167" t="str">
+      <c r="A261" s="142" t="str">
         <f>IF(AND(E261=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E259) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B261" s="138"/>
       <c r="C261" s="138"/>
       <c r="D261" s="139"/>
-      <c r="E261" s="168"/>
+      <c r="E261" s="143"/>
       <c r="F261" s="140" t="s">
         <v>18</v>
       </c>
@@ -63219,14 +63227,14 @@
       <c r="I261" s="141"/>
     </row>
     <row r="262" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A262" s="167" t="str">
+      <c r="A262" s="142" t="str">
         <f>IF(AND(E262=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E260) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B262" s="138"/>
       <c r="C262" s="138"/>
       <c r="D262" s="139"/>
-      <c r="E262" s="168"/>
+      <c r="E262" s="143"/>
       <c r="F262" s="140" t="s">
         <v>18</v>
       </c>
@@ -63238,14 +63246,14 @@
       <c r="I262" s="141"/>
     </row>
     <row r="263" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A263" s="167" t="str">
+      <c r="A263" s="142" t="str">
         <f>IF(AND(E263=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E261) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B263" s="138"/>
       <c r="C263" s="138"/>
       <c r="D263" s="139"/>
-      <c r="E263" s="168"/>
+      <c r="E263" s="143"/>
       <c r="F263" s="140" t="s">
         <v>18</v>
       </c>
@@ -63257,14 +63265,14 @@
       <c r="I263" s="141"/>
     </row>
     <row r="264" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A264" s="167" t="str">
+      <c r="A264" s="142" t="str">
         <f>IF(AND(E264=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E262) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B264" s="138"/>
       <c r="C264" s="138"/>
       <c r="D264" s="139"/>
-      <c r="E264" s="168"/>
+      <c r="E264" s="143"/>
       <c r="F264" s="140" t="s">
         <v>18</v>
       </c>
@@ -63276,14 +63284,14 @@
       <c r="I264" s="141"/>
     </row>
     <row r="265" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A265" s="167" t="str">
+      <c r="A265" s="142" t="str">
         <f>IF(AND(E265=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E263) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B265" s="138"/>
       <c r="C265" s="138"/>
       <c r="D265" s="139"/>
-      <c r="E265" s="168"/>
+      <c r="E265" s="143"/>
       <c r="F265" s="140" t="s">
         <v>18</v>
       </c>
@@ -63295,14 +63303,14 @@
       <c r="I265" s="141"/>
     </row>
     <row r="266" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A266" s="167" t="str">
+      <c r="A266" s="142" t="str">
         <f>IF(AND(E266=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E264) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B266" s="138"/>
       <c r="C266" s="138"/>
       <c r="D266" s="139"/>
-      <c r="E266" s="168"/>
+      <c r="E266" s="143"/>
       <c r="F266" s="140" t="s">
         <v>18</v>
       </c>
@@ -63314,14 +63322,14 @@
       <c r="I266" s="141"/>
     </row>
     <row r="267" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A267" s="167" t="str">
+      <c r="A267" s="142" t="str">
         <f>IF(AND(E267=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E265) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B267" s="138"/>
       <c r="C267" s="138"/>
       <c r="D267" s="139"/>
-      <c r="E267" s="168"/>
+      <c r="E267" s="143"/>
       <c r="F267" s="140" t="s">
         <v>18</v>
       </c>
@@ -63333,14 +63341,14 @@
       <c r="I267" s="141"/>
     </row>
     <row r="268" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A268" s="167" t="str">
+      <c r="A268" s="142" t="str">
         <f>IF(AND(E268=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E266) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B268" s="138"/>
       <c r="C268" s="138"/>
       <c r="D268" s="139"/>
-      <c r="E268" s="168"/>
+      <c r="E268" s="143"/>
       <c r="F268" s="140" t="s">
         <v>18</v>
       </c>
@@ -63352,14 +63360,14 @@
       <c r="I268" s="141"/>
     </row>
     <row r="269" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A269" s="167" t="str">
+      <c r="A269" s="142" t="str">
         <f>IF(AND(E269=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E267) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B269" s="138"/>
       <c r="C269" s="138"/>
       <c r="D269" s="139"/>
-      <c r="E269" s="168"/>
+      <c r="E269" s="143"/>
       <c r="F269" s="140" t="s">
         <v>18</v>
       </c>
@@ -63371,14 +63379,14 @@
       <c r="I269" s="141"/>
     </row>
     <row r="270" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A270" s="167" t="str">
+      <c r="A270" s="142" t="str">
         <f>IF(AND(E270=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E268) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B270" s="138"/>
       <c r="C270" s="138"/>
       <c r="D270" s="139"/>
-      <c r="E270" s="168"/>
+      <c r="E270" s="143"/>
       <c r="F270" s="140" t="s">
         <v>18</v>
       </c>
@@ -63390,14 +63398,14 @@
       <c r="I270" s="141"/>
     </row>
     <row r="271" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A271" s="167" t="str">
+      <c r="A271" s="142" t="str">
         <f>IF(AND(E271=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E269) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B271" s="138"/>
       <c r="C271" s="138"/>
       <c r="D271" s="139"/>
-      <c r="E271" s="168"/>
+      <c r="E271" s="143"/>
       <c r="F271" s="140" t="s">
         <v>18</v>
       </c>
@@ -63409,14 +63417,14 @@
       <c r="I271" s="141"/>
     </row>
     <row r="272" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A272" s="167" t="str">
+      <c r="A272" s="142" t="str">
         <f>IF(AND(E272=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E270) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B272" s="138"/>
       <c r="C272" s="138"/>
       <c r="D272" s="139"/>
-      <c r="E272" s="168"/>
+      <c r="E272" s="143"/>
       <c r="F272" s="140" t="s">
         <v>18</v>
       </c>
@@ -63428,14 +63436,14 @@
       <c r="I272" s="141"/>
     </row>
     <row r="273" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A273" s="167" t="str">
+      <c r="A273" s="142" t="str">
         <f>IF(AND(E273=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E271) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B273" s="138"/>
       <c r="C273" s="138"/>
       <c r="D273" s="139"/>
-      <c r="E273" s="168"/>
+      <c r="E273" s="143"/>
       <c r="F273" s="140" t="s">
         <v>18</v>
       </c>
@@ -63447,14 +63455,14 @@
       <c r="I273" s="141"/>
     </row>
     <row r="274" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A274" s="167" t="str">
+      <c r="A274" s="142" t="str">
         <f>IF(AND(E274=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E272) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B274" s="138"/>
       <c r="C274" s="138"/>
       <c r="D274" s="139"/>
-      <c r="E274" s="168"/>
+      <c r="E274" s="143"/>
       <c r="F274" s="140" t="s">
         <v>18</v>
       </c>
@@ -63466,14 +63474,14 @@
       <c r="I274" s="141"/>
     </row>
     <row r="275" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A275" s="167" t="str">
+      <c r="A275" s="142" t="str">
         <f>IF(AND(E275=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E273) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B275" s="138"/>
       <c r="C275" s="138"/>
       <c r="D275" s="139"/>
-      <c r="E275" s="168"/>
+      <c r="E275" s="143"/>
       <c r="F275" s="140" t="s">
         <v>18</v>
       </c>
@@ -63485,14 +63493,14 @@
       <c r="I275" s="141"/>
     </row>
     <row r="276" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A276" s="167" t="str">
+      <c r="A276" s="142" t="str">
         <f>IF(AND(E276=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E274) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B276" s="138"/>
       <c r="C276" s="138"/>
       <c r="D276" s="139"/>
-      <c r="E276" s="168"/>
+      <c r="E276" s="143"/>
       <c r="F276" s="140" t="s">
         <v>18</v>
       </c>
@@ -63504,14 +63512,14 @@
       <c r="I276" s="141"/>
     </row>
     <row r="277" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A277" s="167" t="str">
+      <c r="A277" s="142" t="str">
         <f>IF(AND(E277=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E275) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B277" s="138"/>
       <c r="C277" s="138"/>
       <c r="D277" s="139"/>
-      <c r="E277" s="168"/>
+      <c r="E277" s="143"/>
       <c r="F277" s="140" t="s">
         <v>18</v>
       </c>
@@ -63523,14 +63531,14 @@
       <c r="I277" s="141"/>
     </row>
     <row r="278" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A278" s="167" t="str">
+      <c r="A278" s="142" t="str">
         <f>IF(AND(E278=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E276) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B278" s="138"/>
       <c r="C278" s="138"/>
       <c r="D278" s="139"/>
-      <c r="E278" s="168"/>
+      <c r="E278" s="143"/>
       <c r="F278" s="140" t="s">
         <v>18</v>
       </c>
@@ -63542,14 +63550,14 @@
       <c r="I278" s="141"/>
     </row>
     <row r="279" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A279" s="167" t="str">
+      <c r="A279" s="142" t="str">
         <f>IF(AND(E279=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E277) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B279" s="138"/>
       <c r="C279" s="138"/>
       <c r="D279" s="139"/>
-      <c r="E279" s="168"/>
+      <c r="E279" s="143"/>
       <c r="F279" s="140" t="s">
         <v>18</v>
       </c>
@@ -63561,14 +63569,14 @@
       <c r="I279" s="141"/>
     </row>
     <row r="280" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A280" s="167" t="str">
+      <c r="A280" s="142" t="str">
         <f>IF(AND(E280=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E278) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B280" s="138"/>
       <c r="C280" s="138"/>
       <c r="D280" s="139"/>
-      <c r="E280" s="168"/>
+      <c r="E280" s="143"/>
       <c r="F280" s="140" t="s">
         <v>18</v>
       </c>
@@ -63580,14 +63588,14 @@
       <c r="I280" s="141"/>
     </row>
     <row r="281" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A281" s="167" t="str">
+      <c r="A281" s="142" t="str">
         <f>IF(AND(E281=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E279) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B281" s="138"/>
       <c r="C281" s="138"/>
       <c r="D281" s="139"/>
-      <c r="E281" s="168"/>
+      <c r="E281" s="143"/>
       <c r="F281" s="140" t="s">
         <v>18</v>
       </c>
@@ -63599,14 +63607,14 @@
       <c r="I281" s="141"/>
     </row>
     <row r="282" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A282" s="167" t="str">
+      <c r="A282" s="142" t="str">
         <f>IF(AND(E282=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E280) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B282" s="138"/>
       <c r="C282" s="138"/>
       <c r="D282" s="139"/>
-      <c r="E282" s="168"/>
+      <c r="E282" s="143"/>
       <c r="F282" s="140" t="s">
         <v>18</v>
       </c>
@@ -63618,14 +63626,14 @@
       <c r="I282" s="141"/>
     </row>
     <row r="283" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A283" s="167" t="str">
+      <c r="A283" s="142" t="str">
         <f>IF(AND(E283=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E281) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B283" s="138"/>
       <c r="C283" s="138"/>
       <c r="D283" s="139"/>
-      <c r="E283" s="168"/>
+      <c r="E283" s="143"/>
       <c r="F283" s="140" t="s">
         <v>18</v>
       </c>
@@ -63637,14 +63645,14 @@
       <c r="I283" s="141"/>
     </row>
     <row r="284" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A284" s="167" t="str">
+      <c r="A284" s="142" t="str">
         <f>IF(AND(E284=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E282) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B284" s="138"/>
       <c r="C284" s="138"/>
       <c r="D284" s="139"/>
-      <c r="E284" s="168"/>
+      <c r="E284" s="143"/>
       <c r="F284" s="140" t="s">
         <v>18</v>
       </c>
@@ -63656,14 +63664,14 @@
       <c r="I284" s="141"/>
     </row>
     <row r="285" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A285" s="167" t="str">
+      <c r="A285" s="142" t="str">
         <f>IF(AND(E285=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E283) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B285" s="138"/>
       <c r="C285" s="138"/>
       <c r="D285" s="139"/>
-      <c r="E285" s="168"/>
+      <c r="E285" s="143"/>
       <c r="F285" s="140" t="s">
         <v>18</v>
       </c>
@@ -63675,14 +63683,14 @@
       <c r="I285" s="141"/>
     </row>
     <row r="286" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A286" s="167" t="str">
+      <c r="A286" s="142" t="str">
         <f>IF(AND(E286=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E284) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B286" s="138"/>
       <c r="C286" s="138"/>
       <c r="D286" s="139"/>
-      <c r="E286" s="168"/>
+      <c r="E286" s="143"/>
       <c r="F286" s="140" t="s">
         <v>18</v>
       </c>
@@ -63694,14 +63702,14 @@
       <c r="I286" s="141"/>
     </row>
     <row r="287" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A287" s="167" t="str">
+      <c r="A287" s="142" t="str">
         <f>IF(AND(E287=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E285) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B287" s="138"/>
       <c r="C287" s="138"/>
       <c r="D287" s="139"/>
-      <c r="E287" s="168"/>
+      <c r="E287" s="143"/>
       <c r="F287" s="140" t="s">
         <v>18</v>
       </c>
@@ -63713,14 +63721,14 @@
       <c r="I287" s="141"/>
     </row>
     <row r="288" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A288" s="167" t="str">
+      <c r="A288" s="142" t="str">
         <f>IF(AND(E288=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E286) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B288" s="138"/>
       <c r="C288" s="138"/>
       <c r="D288" s="139"/>
-      <c r="E288" s="168"/>
+      <c r="E288" s="143"/>
       <c r="F288" s="140" t="s">
         <v>18</v>
       </c>
@@ -63732,14 +63740,14 @@
       <c r="I288" s="141"/>
     </row>
     <row r="289" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A289" s="167" t="str">
+      <c r="A289" s="142" t="str">
         <f>IF(AND(E289=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E287) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B289" s="138"/>
       <c r="C289" s="138"/>
       <c r="D289" s="139"/>
-      <c r="E289" s="168"/>
+      <c r="E289" s="143"/>
       <c r="F289" s="140" t="s">
         <v>18</v>
       </c>
@@ -63751,14 +63759,14 @@
       <c r="I289" s="141"/>
     </row>
     <row r="290" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A290" s="167" t="str">
+      <c r="A290" s="142" t="str">
         <f>IF(AND(E290=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E288) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B290" s="138"/>
       <c r="C290" s="138"/>
       <c r="D290" s="139"/>
-      <c r="E290" s="168"/>
+      <c r="E290" s="143"/>
       <c r="F290" s="140" t="s">
         <v>18</v>
       </c>
@@ -63770,14 +63778,14 @@
       <c r="I290" s="141"/>
     </row>
     <row r="291" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A291" s="167" t="str">
+      <c r="A291" s="142" t="str">
         <f>IF(AND(E291=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E289) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B291" s="138"/>
       <c r="C291" s="138"/>
       <c r="D291" s="139"/>
-      <c r="E291" s="168"/>
+      <c r="E291" s="143"/>
       <c r="F291" s="140" t="s">
         <v>18</v>
       </c>
@@ -63789,14 +63797,14 @@
       <c r="I291" s="141"/>
     </row>
     <row r="292" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A292" s="167" t="str">
+      <c r="A292" s="142" t="str">
         <f>IF(AND(E292=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E290) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B292" s="138"/>
       <c r="C292" s="138"/>
       <c r="D292" s="139"/>
-      <c r="E292" s="168"/>
+      <c r="E292" s="143"/>
       <c r="F292" s="140" t="s">
         <v>18</v>
       </c>
@@ -63808,14 +63816,14 @@
       <c r="I292" s="141"/>
     </row>
     <row r="293" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A293" s="167" t="str">
+      <c r="A293" s="142" t="str">
         <f>IF(AND(E293=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E291) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B293" s="138"/>
       <c r="C293" s="138"/>
       <c r="D293" s="139"/>
-      <c r="E293" s="168"/>
+      <c r="E293" s="143"/>
       <c r="F293" s="140" t="s">
         <v>18</v>
       </c>
@@ -63827,14 +63835,14 @@
       <c r="I293" s="141"/>
     </row>
     <row r="294" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A294" s="167" t="str">
+      <c r="A294" s="142" t="str">
         <f>IF(AND(E294=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E292) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B294" s="138"/>
       <c r="C294" s="138"/>
       <c r="D294" s="139"/>
-      <c r="E294" s="168"/>
+      <c r="E294" s="143"/>
       <c r="F294" s="140" t="s">
         <v>18</v>
       </c>
@@ -63846,14 +63854,14 @@
       <c r="I294" s="141"/>
     </row>
     <row r="295" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A295" s="167" t="str">
+      <c r="A295" s="142" t="str">
         <f>IF(AND(E295=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E293) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B295" s="138"/>
       <c r="C295" s="138"/>
       <c r="D295" s="139"/>
-      <c r="E295" s="168"/>
+      <c r="E295" s="143"/>
       <c r="F295" s="140" t="s">
         <v>18</v>
       </c>
@@ -63865,14 +63873,14 @@
       <c r="I295" s="141"/>
     </row>
     <row r="296" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A296" s="167" t="str">
+      <c r="A296" s="142" t="str">
         <f>IF(AND(E296=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E294) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B296" s="138"/>
       <c r="C296" s="138"/>
       <c r="D296" s="139"/>
-      <c r="E296" s="168"/>
+      <c r="E296" s="143"/>
       <c r="F296" s="140" t="s">
         <v>18</v>
       </c>
@@ -63884,14 +63892,14 @@
       <c r="I296" s="141"/>
     </row>
     <row r="297" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A297" s="167" t="str">
+      <c r="A297" s="142" t="str">
         <f>IF(AND(E297=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E295) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B297" s="138"/>
       <c r="C297" s="138"/>
       <c r="D297" s="139"/>
-      <c r="E297" s="168"/>
+      <c r="E297" s="143"/>
       <c r="F297" s="140" t="s">
         <v>18</v>
       </c>
@@ -63903,14 +63911,14 @@
       <c r="I297" s="141"/>
     </row>
     <row r="298" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A298" s="167" t="str">
+      <c r="A298" s="142" t="str">
         <f>IF(AND(E298=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E296) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B298" s="138"/>
       <c r="C298" s="138"/>
       <c r="D298" s="139"/>
-      <c r="E298" s="168"/>
+      <c r="E298" s="143"/>
       <c r="F298" s="140" t="s">
         <v>18</v>
       </c>
@@ -63922,14 +63930,14 @@
       <c r="I298" s="141"/>
     </row>
     <row r="299" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A299" s="167" t="str">
+      <c r="A299" s="142" t="str">
         <f>IF(AND(E299=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E297) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B299" s="138"/>
       <c r="C299" s="138"/>
       <c r="D299" s="139"/>
-      <c r="E299" s="168"/>
+      <c r="E299" s="143"/>
       <c r="F299" s="140" t="s">
         <v>18</v>
       </c>
@@ -63941,14 +63949,14 @@
       <c r="I299" s="141"/>
     </row>
     <row r="300" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A300" s="167" t="str">
+      <c r="A300" s="142" t="str">
         <f>IF(AND(E300=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E298) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B300" s="138"/>
       <c r="C300" s="138"/>
       <c r="D300" s="139"/>
-      <c r="E300" s="168"/>
+      <c r="E300" s="143"/>
       <c r="F300" s="140" t="s">
         <v>18</v>
       </c>
@@ -63960,14 +63968,14 @@
       <c r="I300" s="141"/>
     </row>
     <row r="301" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A301" s="167" t="str">
+      <c r="A301" s="142" t="str">
         <f>IF(AND(E301=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E299) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B301" s="138"/>
       <c r="C301" s="138"/>
       <c r="D301" s="139"/>
-      <c r="E301" s="168"/>
+      <c r="E301" s="143"/>
       <c r="F301" s="140" t="s">
         <v>18</v>
       </c>
@@ -63979,14 +63987,14 @@
       <c r="I301" s="141"/>
     </row>
     <row r="302" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A302" s="167" t="str">
+      <c r="A302" s="142" t="str">
         <f>IF(AND(E302=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E300) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B302" s="138"/>
       <c r="C302" s="138"/>
       <c r="D302" s="139"/>
-      <c r="E302" s="168"/>
+      <c r="E302" s="143"/>
       <c r="F302" s="140" t="s">
         <v>18</v>
       </c>
@@ -63998,14 +64006,14 @@
       <c r="I302" s="141"/>
     </row>
     <row r="303" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A303" s="167" t="str">
+      <c r="A303" s="142" t="str">
         <f>IF(AND(E303=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E301) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B303" s="138"/>
       <c r="C303" s="138"/>
       <c r="D303" s="139"/>
-      <c r="E303" s="168"/>
+      <c r="E303" s="143"/>
       <c r="F303" s="140" t="s">
         <v>18</v>
       </c>
@@ -64017,14 +64025,14 @@
       <c r="I303" s="141"/>
     </row>
     <row r="304" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A304" s="167" t="str">
+      <c r="A304" s="142" t="str">
         <f>IF(AND(E304=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E302) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B304" s="138"/>
       <c r="C304" s="138"/>
       <c r="D304" s="139"/>
-      <c r="E304" s="168"/>
+      <c r="E304" s="143"/>
       <c r="F304" s="140" t="s">
         <v>18</v>
       </c>
@@ -64036,14 +64044,14 @@
       <c r="I304" s="141"/>
     </row>
     <row r="305" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A305" s="167" t="str">
+      <c r="A305" s="142" t="str">
         <f>IF(AND(E305=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E303) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B305" s="138"/>
       <c r="C305" s="138"/>
       <c r="D305" s="139"/>
-      <c r="E305" s="168"/>
+      <c r="E305" s="143"/>
       <c r="F305" s="140" t="s">
         <v>18</v>
       </c>
@@ -64055,14 +64063,14 @@
       <c r="I305" s="141"/>
     </row>
     <row r="306" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A306" s="167" t="str">
+      <c r="A306" s="142" t="str">
         <f>IF(AND(E306=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E304) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B306" s="138"/>
       <c r="C306" s="138"/>
       <c r="D306" s="139"/>
-      <c r="E306" s="168"/>
+      <c r="E306" s="143"/>
       <c r="F306" s="140" t="s">
         <v>18</v>
       </c>
@@ -64074,14 +64082,14 @@
       <c r="I306" s="141"/>
     </row>
     <row r="307" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A307" s="167" t="str">
+      <c r="A307" s="142" t="str">
         <f>IF(AND(E307=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E305) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B307" s="138"/>
       <c r="C307" s="138"/>
       <c r="D307" s="139"/>
-      <c r="E307" s="168"/>
+      <c r="E307" s="143"/>
       <c r="F307" s="140" t="s">
         <v>18</v>
       </c>
@@ -64093,14 +64101,14 @@
       <c r="I307" s="141"/>
     </row>
     <row r="308" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A308" s="167" t="str">
+      <c r="A308" s="142" t="str">
         <f>IF(AND(E308=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E306) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B308" s="138"/>
       <c r="C308" s="138"/>
       <c r="D308" s="139"/>
-      <c r="E308" s="168"/>
+      <c r="E308" s="143"/>
       <c r="F308" s="140" t="s">
         <v>18</v>
       </c>
@@ -64112,14 +64120,14 @@
       <c r="I308" s="141"/>
     </row>
     <row r="309" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A309" s="167" t="str">
+      <c r="A309" s="142" t="str">
         <f>IF(AND(E309=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E307) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B309" s="138"/>
       <c r="C309" s="138"/>
       <c r="D309" s="139"/>
-      <c r="E309" s="168"/>
+      <c r="E309" s="143"/>
       <c r="F309" s="140" t="s">
         <v>18</v>
       </c>
@@ -64131,14 +64139,14 @@
       <c r="I309" s="141"/>
     </row>
     <row r="310" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A310" s="167" t="str">
+      <c r="A310" s="142" t="str">
         <f>IF(AND(E310=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E308) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B310" s="138"/>
       <c r="C310" s="138"/>
       <c r="D310" s="139"/>
-      <c r="E310" s="168"/>
+      <c r="E310" s="143"/>
       <c r="F310" s="140" t="s">
         <v>18</v>
       </c>
@@ -64150,14 +64158,14 @@
       <c r="I310" s="141"/>
     </row>
     <row r="311" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A311" s="167" t="str">
+      <c r="A311" s="142" t="str">
         <f>IF(AND(E311=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E309) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B311" s="138"/>
       <c r="C311" s="138"/>
       <c r="D311" s="139"/>
-      <c r="E311" s="168"/>
+      <c r="E311" s="143"/>
       <c r="F311" s="140" t="s">
         <v>18</v>
       </c>
@@ -64169,14 +64177,14 @@
       <c r="I311" s="141"/>
     </row>
     <row r="312" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A312" s="167" t="str">
+      <c r="A312" s="142" t="str">
         <f>IF(AND(E312=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E310) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B312" s="138"/>
       <c r="C312" s="138"/>
       <c r="D312" s="139"/>
-      <c r="E312" s="168"/>
+      <c r="E312" s="143"/>
       <c r="F312" s="140" t="s">
         <v>18</v>
       </c>
@@ -64188,14 +64196,14 @@
       <c r="I312" s="141"/>
     </row>
     <row r="313" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A313" s="167" t="str">
+      <c r="A313" s="142" t="str">
         <f>IF(AND(E313=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E311) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B313" s="138"/>
       <c r="C313" s="138"/>
       <c r="D313" s="139"/>
-      <c r="E313" s="168"/>
+      <c r="E313" s="143"/>
       <c r="F313" s="140" t="s">
         <v>18</v>
       </c>
@@ -64207,14 +64215,14 @@
       <c r="I313" s="141"/>
     </row>
     <row r="314" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A314" s="167" t="str">
+      <c r="A314" s="142" t="str">
         <f>IF(AND(E314=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E312) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B314" s="138"/>
       <c r="C314" s="138"/>
       <c r="D314" s="139"/>
-      <c r="E314" s="168"/>
+      <c r="E314" s="143"/>
       <c r="F314" s="140" t="s">
         <v>18</v>
       </c>
@@ -64226,14 +64234,14 @@
       <c r="I314" s="141"/>
     </row>
     <row r="315" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A315" s="167" t="str">
+      <c r="A315" s="142" t="str">
         <f>IF(AND(E315=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E313) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B315" s="138"/>
       <c r="C315" s="138"/>
       <c r="D315" s="139"/>
-      <c r="E315" s="168"/>
+      <c r="E315" s="143"/>
       <c r="F315" s="140" t="s">
         <v>18</v>
       </c>
@@ -64245,14 +64253,14 @@
       <c r="I315" s="141"/>
     </row>
     <row r="316" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A316" s="167" t="str">
+      <c r="A316" s="142" t="str">
         <f>IF(AND(E316=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E314) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B316" s="138"/>
       <c r="C316" s="138"/>
       <c r="D316" s="139"/>
-      <c r="E316" s="168"/>
+      <c r="E316" s="143"/>
       <c r="F316" s="140" t="s">
         <v>18</v>
       </c>
@@ -64264,14 +64272,14 @@
       <c r="I316" s="141"/>
     </row>
     <row r="317" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A317" s="167" t="str">
+      <c r="A317" s="142" t="str">
         <f>IF(AND(E317=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E315) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B317" s="138"/>
       <c r="C317" s="138"/>
       <c r="D317" s="139"/>
-      <c r="E317" s="168"/>
+      <c r="E317" s="143"/>
       <c r="F317" s="140" t="s">
         <v>18</v>
       </c>
@@ -64283,14 +64291,14 @@
       <c r="I317" s="141"/>
     </row>
     <row r="318" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A318" s="167" t="str">
+      <c r="A318" s="142" t="str">
         <f>IF(AND(E318=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E316) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B318" s="138"/>
       <c r="C318" s="138"/>
       <c r="D318" s="139"/>
-      <c r="E318" s="168"/>
+      <c r="E318" s="143"/>
       <c r="F318" s="140" t="s">
         <v>18</v>
       </c>
@@ -64302,14 +64310,14 @@
       <c r="I318" s="141"/>
     </row>
     <row r="319" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A319" s="167" t="str">
+      <c r="A319" s="142" t="str">
         <f>IF(AND(E319=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E317) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B319" s="138"/>
       <c r="C319" s="138"/>
       <c r="D319" s="139"/>
-      <c r="E319" s="168"/>
+      <c r="E319" s="143"/>
       <c r="F319" s="140" t="s">
         <v>18</v>
       </c>
@@ -64321,14 +64329,14 @@
       <c r="I319" s="141"/>
     </row>
     <row r="320" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A320" s="167" t="str">
+      <c r="A320" s="142" t="str">
         <f>IF(AND(E320=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E318) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B320" s="138"/>
       <c r="C320" s="138"/>
       <c r="D320" s="139"/>
-      <c r="E320" s="168"/>
+      <c r="E320" s="143"/>
       <c r="F320" s="140" t="s">
         <v>18</v>
       </c>
@@ -64340,14 +64348,14 @@
       <c r="I320" s="141"/>
     </row>
     <row r="321" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A321" s="167" t="str">
+      <c r="A321" s="142" t="str">
         <f>IF(AND(E321=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E319) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B321" s="138"/>
       <c r="C321" s="138"/>
       <c r="D321" s="139"/>
-      <c r="E321" s="168"/>
+      <c r="E321" s="143"/>
       <c r="F321" s="140" t="s">
         <v>18</v>
       </c>
@@ -64359,14 +64367,14 @@
       <c r="I321" s="141"/>
     </row>
     <row r="322" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A322" s="167" t="str">
+      <c r="A322" s="142" t="str">
         <f>IF(AND(E322=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E320) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B322" s="138"/>
       <c r="C322" s="138"/>
       <c r="D322" s="139"/>
-      <c r="E322" s="168"/>
+      <c r="E322" s="143"/>
       <c r="F322" s="140" t="s">
         <v>18</v>
       </c>
@@ -64378,14 +64386,14 @@
       <c r="I322" s="141"/>
     </row>
     <row r="323" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A323" s="167" t="str">
+      <c r="A323" s="142" t="str">
         <f>IF(AND(E323=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E321) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B323" s="138"/>
       <c r="C323" s="138"/>
       <c r="D323" s="139"/>
-      <c r="E323" s="168"/>
+      <c r="E323" s="143"/>
       <c r="F323" s="140" t="s">
         <v>18</v>
       </c>
@@ -64397,14 +64405,14 @@
       <c r="I323" s="141"/>
     </row>
     <row r="324" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A324" s="167" t="str">
+      <c r="A324" s="142" t="str">
         <f>IF(AND(E324=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E322) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B324" s="138"/>
       <c r="C324" s="138"/>
       <c r="D324" s="139"/>
-      <c r="E324" s="168"/>
+      <c r="E324" s="143"/>
       <c r="F324" s="140" t="s">
         <v>18</v>
       </c>
@@ -64416,14 +64424,14 @@
       <c r="I324" s="141"/>
     </row>
     <row r="325" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A325" s="167" t="str">
+      <c r="A325" s="142" t="str">
         <f>IF(AND(E325=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E323) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B325" s="138"/>
       <c r="C325" s="138"/>
       <c r="D325" s="139"/>
-      <c r="E325" s="168"/>
+      <c r="E325" s="143"/>
       <c r="F325" s="140" t="s">
         <v>18</v>
       </c>
@@ -64435,14 +64443,14 @@
       <c r="I325" s="141"/>
     </row>
     <row r="326" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A326" s="167" t="str">
+      <c r="A326" s="142" t="str">
         <f>IF(AND(E326=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E324) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B326" s="138"/>
       <c r="C326" s="138"/>
       <c r="D326" s="139"/>
-      <c r="E326" s="168"/>
+      <c r="E326" s="143"/>
       <c r="F326" s="140" t="s">
         <v>18</v>
       </c>
@@ -64454,14 +64462,14 @@
       <c r="I326" s="141"/>
     </row>
     <row r="327" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A327" s="167" t="str">
+      <c r="A327" s="142" t="str">
         <f>IF(AND(E327=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E325) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B327" s="138"/>
       <c r="C327" s="138"/>
       <c r="D327" s="139"/>
-      <c r="E327" s="168"/>
+      <c r="E327" s="143"/>
       <c r="F327" s="140" t="s">
         <v>18</v>
       </c>
@@ -64473,14 +64481,14 @@
       <c r="I327" s="141"/>
     </row>
     <row r="328" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A328" s="167" t="str">
+      <c r="A328" s="142" t="str">
         <f>IF(AND(E328=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E326) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B328" s="138"/>
       <c r="C328" s="138"/>
       <c r="D328" s="139"/>
-      <c r="E328" s="168"/>
+      <c r="E328" s="143"/>
       <c r="F328" s="140" t="s">
         <v>18</v>
       </c>
@@ -64492,14 +64500,14 @@
       <c r="I328" s="141"/>
     </row>
     <row r="329" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A329" s="167" t="str">
+      <c r="A329" s="142" t="str">
         <f>IF(AND(E329=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E327) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B329" s="138"/>
       <c r="C329" s="138"/>
       <c r="D329" s="139"/>
-      <c r="E329" s="168"/>
+      <c r="E329" s="143"/>
       <c r="F329" s="140" t="s">
         <v>18</v>
       </c>
@@ -64511,14 +64519,14 @@
       <c r="I329" s="141"/>
     </row>
     <row r="330" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A330" s="167" t="str">
+      <c r="A330" s="142" t="str">
         <f>IF(AND(E330=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E328) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B330" s="138"/>
       <c r="C330" s="138"/>
       <c r="D330" s="139"/>
-      <c r="E330" s="168"/>
+      <c r="E330" s="143"/>
       <c r="F330" s="140" t="s">
         <v>18</v>
       </c>
@@ -64530,14 +64538,14 @@
       <c r="I330" s="141"/>
     </row>
     <row r="331" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A331" s="167" t="str">
+      <c r="A331" s="142" t="str">
         <f>IF(AND(E331=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E329) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B331" s="138"/>
       <c r="C331" s="138"/>
       <c r="D331" s="139"/>
-      <c r="E331" s="168"/>
+      <c r="E331" s="143"/>
       <c r="F331" s="140" t="s">
         <v>18</v>
       </c>
@@ -64549,14 +64557,14 @@
       <c r="I331" s="141"/>
     </row>
     <row r="332" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A332" s="167" t="str">
+      <c r="A332" s="142" t="str">
         <f>IF(AND(E332=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E330) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B332" s="138"/>
       <c r="C332" s="138"/>
       <c r="D332" s="139"/>
-      <c r="E332" s="168"/>
+      <c r="E332" s="143"/>
       <c r="F332" s="140" t="s">
         <v>18</v>
       </c>
@@ -64568,14 +64576,14 @@
       <c r="I332" s="141"/>
     </row>
     <row r="333" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A333" s="167" t="str">
+      <c r="A333" s="142" t="str">
         <f>IF(AND(E333=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E331) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B333" s="138"/>
       <c r="C333" s="138"/>
       <c r="D333" s="139"/>
-      <c r="E333" s="168"/>
+      <c r="E333" s="143"/>
       <c r="F333" s="140" t="s">
         <v>18</v>
       </c>
@@ -64587,14 +64595,14 @@
       <c r="I333" s="141"/>
     </row>
     <row r="334" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A334" s="167" t="str">
+      <c r="A334" s="142" t="str">
         <f>IF(AND(E334=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E332) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B334" s="138"/>
       <c r="C334" s="138"/>
       <c r="D334" s="139"/>
-      <c r="E334" s="168"/>
+      <c r="E334" s="143"/>
       <c r="F334" s="140" t="s">
         <v>18</v>
       </c>
@@ -64606,14 +64614,14 @@
       <c r="I334" s="141"/>
     </row>
     <row r="335" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A335" s="167" t="str">
+      <c r="A335" s="142" t="str">
         <f>IF(AND(E335=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E333) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B335" s="138"/>
       <c r="C335" s="138"/>
       <c r="D335" s="139"/>
-      <c r="E335" s="168"/>
+      <c r="E335" s="143"/>
       <c r="F335" s="140" t="s">
         <v>18</v>
       </c>
@@ -64625,14 +64633,14 @@
       <c r="I335" s="141"/>
     </row>
     <row r="336" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A336" s="167" t="str">
+      <c r="A336" s="142" t="str">
         <f>IF(AND(E336=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E334) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B336" s="138"/>
       <c r="C336" s="138"/>
       <c r="D336" s="139"/>
-      <c r="E336" s="168"/>
+      <c r="E336" s="143"/>
       <c r="F336" s="140" t="s">
         <v>18</v>
       </c>
@@ -64644,14 +64652,14 @@
       <c r="I336" s="141"/>
     </row>
     <row r="337" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A337" s="167" t="str">
+      <c r="A337" s="142" t="str">
         <f>IF(AND(E337=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E335) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B337" s="138"/>
       <c r="C337" s="138"/>
       <c r="D337" s="139"/>
-      <c r="E337" s="168"/>
+      <c r="E337" s="143"/>
       <c r="F337" s="140" t="s">
         <v>18</v>
       </c>
@@ -64663,14 +64671,14 @@
       <c r="I337" s="141"/>
     </row>
     <row r="338" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A338" s="167" t="str">
+      <c r="A338" s="142" t="str">
         <f>IF(AND(E338=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E336) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B338" s="138"/>
       <c r="C338" s="138"/>
       <c r="D338" s="139"/>
-      <c r="E338" s="168"/>
+      <c r="E338" s="143"/>
       <c r="F338" s="140" t="s">
         <v>18</v>
       </c>
@@ -64682,14 +64690,14 @@
       <c r="I338" s="141"/>
     </row>
     <row r="339" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A339" s="167" t="str">
+      <c r="A339" s="142" t="str">
         <f>IF(AND(E339=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E337) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B339" s="138"/>
       <c r="C339" s="138"/>
       <c r="D339" s="139"/>
-      <c r="E339" s="168"/>
+      <c r="E339" s="143"/>
       <c r="F339" s="140" t="s">
         <v>18</v>
       </c>
@@ -64701,14 +64709,14 @@
       <c r="I339" s="141"/>
     </row>
     <row r="340" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A340" s="167" t="str">
+      <c r="A340" s="142" t="str">
         <f>IF(AND(E340=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E338) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B340" s="138"/>
       <c r="C340" s="138"/>
       <c r="D340" s="139"/>
-      <c r="E340" s="168"/>
+      <c r="E340" s="143"/>
       <c r="F340" s="140" t="s">
         <v>18</v>
       </c>
@@ -64720,14 +64728,14 @@
       <c r="I340" s="141"/>
     </row>
     <row r="341" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A341" s="167" t="str">
+      <c r="A341" s="142" t="str">
         <f>IF(AND(E341=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E339) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B341" s="138"/>
       <c r="C341" s="138"/>
       <c r="D341" s="139"/>
-      <c r="E341" s="168"/>
+      <c r="E341" s="143"/>
       <c r="F341" s="140" t="s">
         <v>18</v>
       </c>
@@ -64739,14 +64747,14 @@
       <c r="I341" s="141"/>
     </row>
     <row r="342" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A342" s="167" t="str">
+      <c r="A342" s="142" t="str">
         <f>IF(AND(E342=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E340) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B342" s="138"/>
       <c r="C342" s="138"/>
       <c r="D342" s="139"/>
-      <c r="E342" s="168"/>
+      <c r="E342" s="143"/>
       <c r="F342" s="140" t="s">
         <v>18</v>
       </c>
@@ -64758,14 +64766,14 @@
       <c r="I342" s="141"/>
     </row>
     <row r="343" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A343" s="167" t="str">
+      <c r="A343" s="142" t="str">
         <f>IF(AND(E343=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E341) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B343" s="138"/>
       <c r="C343" s="138"/>
       <c r="D343" s="139"/>
-      <c r="E343" s="168"/>
+      <c r="E343" s="143"/>
       <c r="F343" s="140" t="s">
         <v>18</v>
       </c>
@@ -64777,14 +64785,14 @@
       <c r="I343" s="141"/>
     </row>
     <row r="344" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A344" s="167" t="str">
+      <c r="A344" s="142" t="str">
         <f>IF(AND(E344=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E342) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B344" s="138"/>
       <c r="C344" s="138"/>
       <c r="D344" s="139"/>
-      <c r="E344" s="168"/>
+      <c r="E344" s="143"/>
       <c r="F344" s="140" t="s">
         <v>18</v>
       </c>
@@ -64796,14 +64804,14 @@
       <c r="I344" s="141"/>
     </row>
     <row r="345" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A345" s="167" t="str">
+      <c r="A345" s="142" t="str">
         <f>IF(AND(E345=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E343) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B345" s="138"/>
       <c r="C345" s="138"/>
       <c r="D345" s="139"/>
-      <c r="E345" s="168"/>
+      <c r="E345" s="143"/>
       <c r="F345" s="140" t="s">
         <v>18</v>
       </c>
@@ -64815,14 +64823,14 @@
       <c r="I345" s="141"/>
     </row>
     <row r="346" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A346" s="167" t="str">
+      <c r="A346" s="142" t="str">
         <f>IF(AND(E346=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E344) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B346" s="138"/>
       <c r="C346" s="138"/>
       <c r="D346" s="139"/>
-      <c r="E346" s="168"/>
+      <c r="E346" s="143"/>
       <c r="F346" s="140" t="s">
         <v>18</v>
       </c>
@@ -64834,14 +64842,14 @@
       <c r="I346" s="141"/>
     </row>
     <row r="347" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A347" s="167" t="str">
+      <c r="A347" s="142" t="str">
         <f>IF(AND(E347=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E345) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B347" s="138"/>
       <c r="C347" s="138"/>
       <c r="D347" s="139"/>
-      <c r="E347" s="168"/>
+      <c r="E347" s="143"/>
       <c r="F347" s="140" t="s">
         <v>18</v>
       </c>
@@ -64853,14 +64861,14 @@
       <c r="I347" s="141"/>
     </row>
     <row r="348" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A348" s="167" t="str">
+      <c r="A348" s="142" t="str">
         <f>IF(AND(E348=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E346) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B348" s="138"/>
       <c r="C348" s="138"/>
       <c r="D348" s="139"/>
-      <c r="E348" s="168"/>
+      <c r="E348" s="143"/>
       <c r="F348" s="140" t="s">
         <v>18</v>
       </c>
@@ -64872,14 +64880,14 @@
       <c r="I348" s="141"/>
     </row>
     <row r="349" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A349" s="167" t="str">
+      <c r="A349" s="142" t="str">
         <f>IF(AND(E349=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E347) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B349" s="138"/>
       <c r="C349" s="138"/>
       <c r="D349" s="139"/>
-      <c r="E349" s="168"/>
+      <c r="E349" s="143"/>
       <c r="F349" s="140" t="s">
         <v>18</v>
       </c>
@@ -64891,14 +64899,14 @@
       <c r="I349" s="141"/>
     </row>
     <row r="350" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A350" s="167" t="str">
+      <c r="A350" s="142" t="str">
         <f>IF(AND(E350=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E348) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B350" s="138"/>
       <c r="C350" s="138"/>
       <c r="D350" s="139"/>
-      <c r="E350" s="168"/>
+      <c r="E350" s="143"/>
       <c r="F350" s="140" t="s">
         <v>18</v>
       </c>
@@ -64910,14 +64918,14 @@
       <c r="I350" s="141"/>
     </row>
     <row r="351" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A351" s="167" t="str">
+      <c r="A351" s="142" t="str">
         <f>IF(AND(E351=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E349) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B351" s="138"/>
       <c r="C351" s="138"/>
       <c r="D351" s="139"/>
-      <c r="E351" s="168"/>
+      <c r="E351" s="143"/>
       <c r="F351" s="140" t="s">
         <v>18</v>
       </c>
@@ -64929,14 +64937,14 @@
       <c r="I351" s="141"/>
     </row>
     <row r="352" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A352" s="167" t="str">
+      <c r="A352" s="142" t="str">
         <f>IF(AND(E352=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E350) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B352" s="138"/>
       <c r="C352" s="138"/>
       <c r="D352" s="139"/>
-      <c r="E352" s="168"/>
+      <c r="E352" s="143"/>
       <c r="F352" s="140" t="s">
         <v>18</v>
       </c>
@@ -64948,14 +64956,14 @@
       <c r="I352" s="141"/>
     </row>
     <row r="353" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A353" s="167" t="str">
+      <c r="A353" s="142" t="str">
         <f>IF(AND(E353=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E351) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B353" s="138"/>
       <c r="C353" s="138"/>
       <c r="D353" s="139"/>
-      <c r="E353" s="168"/>
+      <c r="E353" s="143"/>
       <c r="F353" s="140" t="s">
         <v>18</v>
       </c>
@@ -64967,14 +64975,14 @@
       <c r="I353" s="141"/>
     </row>
     <row r="354" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A354" s="167" t="str">
+      <c r="A354" s="142" t="str">
         <f>IF(AND(E354=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E352) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B354" s="138"/>
       <c r="C354" s="138"/>
       <c r="D354" s="139"/>
-      <c r="E354" s="168"/>
+      <c r="E354" s="143"/>
       <c r="F354" s="140" t="s">
         <v>18</v>
       </c>
@@ -64986,14 +64994,14 @@
       <c r="I354" s="141"/>
     </row>
     <row r="355" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A355" s="167" t="str">
+      <c r="A355" s="142" t="str">
         <f>IF(AND(E355=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E353) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B355" s="138"/>
       <c r="C355" s="138"/>
       <c r="D355" s="139"/>
-      <c r="E355" s="168"/>
+      <c r="E355" s="143"/>
       <c r="F355" s="140" t="s">
         <v>18</v>
       </c>
@@ -65005,14 +65013,14 @@
       <c r="I355" s="141"/>
     </row>
     <row r="356" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A356" s="167" t="str">
+      <c r="A356" s="142" t="str">
         <f>IF(AND(E356=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E354) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B356" s="138"/>
       <c r="C356" s="138"/>
       <c r="D356" s="139"/>
-      <c r="E356" s="168"/>
+      <c r="E356" s="143"/>
       <c r="F356" s="140" t="s">
         <v>18</v>
       </c>
@@ -65024,14 +65032,14 @@
       <c r="I356" s="141"/>
     </row>
     <row r="357" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A357" s="167" t="str">
+      <c r="A357" s="142" t="str">
         <f>IF(AND(E357=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E355) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B357" s="138"/>
       <c r="C357" s="138"/>
       <c r="D357" s="139"/>
-      <c r="E357" s="168"/>
+      <c r="E357" s="143"/>
       <c r="F357" s="140" t="s">
         <v>18</v>
       </c>
@@ -65043,14 +65051,14 @@
       <c r="I357" s="141"/>
     </row>
     <row r="358" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A358" s="167" t="str">
+      <c r="A358" s="142" t="str">
         <f>IF(AND(E358=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E356) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B358" s="138"/>
       <c r="C358" s="138"/>
       <c r="D358" s="139"/>
-      <c r="E358" s="168"/>
+      <c r="E358" s="143"/>
       <c r="F358" s="140" t="s">
         <v>18</v>
       </c>
@@ -65062,14 +65070,14 @@
       <c r="I358" s="141"/>
     </row>
     <row r="359" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A359" s="167" t="str">
+      <c r="A359" s="142" t="str">
         <f>IF(AND(E359=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E357) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B359" s="138"/>
       <c r="C359" s="138"/>
       <c r="D359" s="139"/>
-      <c r="E359" s="168"/>
+      <c r="E359" s="143"/>
       <c r="F359" s="140" t="s">
         <v>18</v>
       </c>
@@ -65081,14 +65089,14 @@
       <c r="I359" s="141"/>
     </row>
     <row r="360" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A360" s="167" t="str">
+      <c r="A360" s="142" t="str">
         <f>IF(AND(E360=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E358) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B360" s="138"/>
       <c r="C360" s="138"/>
       <c r="D360" s="139"/>
-      <c r="E360" s="168"/>
+      <c r="E360" s="143"/>
       <c r="F360" s="140" t="s">
         <v>18</v>
       </c>
@@ -65100,14 +65108,14 @@
       <c r="I360" s="141"/>
     </row>
     <row r="361" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A361" s="167" t="str">
+      <c r="A361" s="142" t="str">
         <f>IF(AND(E361=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E359) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B361" s="138"/>
       <c r="C361" s="138"/>
       <c r="D361" s="139"/>
-      <c r="E361" s="168"/>
+      <c r="E361" s="143"/>
       <c r="F361" s="140" t="s">
         <v>18</v>
       </c>
@@ -65119,14 +65127,14 @@
       <c r="I361" s="141"/>
     </row>
     <row r="362" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A362" s="167" t="str">
+      <c r="A362" s="142" t="str">
         <f>IF(AND(E362=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E360) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B362" s="138"/>
       <c r="C362" s="138"/>
       <c r="D362" s="139"/>
-      <c r="E362" s="168"/>
+      <c r="E362" s="143"/>
       <c r="F362" s="140" t="s">
         <v>18</v>
       </c>
@@ -65138,14 +65146,14 @@
       <c r="I362" s="141"/>
     </row>
     <row r="363" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A363" s="167" t="str">
+      <c r="A363" s="142" t="str">
         <f>IF(AND(E363=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E361) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B363" s="138"/>
       <c r="C363" s="138"/>
       <c r="D363" s="139"/>
-      <c r="E363" s="168"/>
+      <c r="E363" s="143"/>
       <c r="F363" s="140" t="s">
         <v>18</v>
       </c>
@@ -65157,14 +65165,14 @@
       <c r="I363" s="141"/>
     </row>
     <row r="364" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A364" s="167" t="str">
+      <c r="A364" s="142" t="str">
         <f>IF(AND(E364=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E362) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B364" s="138"/>
       <c r="C364" s="138"/>
       <c r="D364" s="139"/>
-      <c r="E364" s="168"/>
+      <c r="E364" s="143"/>
       <c r="F364" s="140" t="s">
         <v>18</v>
       </c>
@@ -65176,14 +65184,14 @@
       <c r="I364" s="141"/>
     </row>
     <row r="365" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A365" s="167" t="str">
+      <c r="A365" s="142" t="str">
         <f>IF(AND(E365=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E363) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B365" s="138"/>
       <c r="C365" s="138"/>
       <c r="D365" s="139"/>
-      <c r="E365" s="168"/>
+      <c r="E365" s="143"/>
       <c r="F365" s="140" t="s">
         <v>18</v>
       </c>
@@ -65195,14 +65203,14 @@
       <c r="I365" s="141"/>
     </row>
     <row r="366" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A366" s="167" t="str">
+      <c r="A366" s="142" t="str">
         <f>IF(AND(E366=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E364) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B366" s="138"/>
       <c r="C366" s="138"/>
       <c r="D366" s="139"/>
-      <c r="E366" s="168"/>
+      <c r="E366" s="143"/>
       <c r="F366" s="140" t="s">
         <v>18</v>
       </c>
@@ -65214,14 +65222,14 @@
       <c r="I366" s="141"/>
     </row>
     <row r="367" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A367" s="167" t="str">
+      <c r="A367" s="142" t="str">
         <f>IF(AND(E367=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E365) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B367" s="138"/>
       <c r="C367" s="138"/>
       <c r="D367" s="139"/>
-      <c r="E367" s="168"/>
+      <c r="E367" s="143"/>
       <c r="F367" s="140" t="s">
         <v>18</v>
       </c>
@@ -65233,14 +65241,14 @@
       <c r="I367" s="141"/>
     </row>
     <row r="368" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A368" s="167" t="str">
+      <c r="A368" s="142" t="str">
         <f>IF(AND(E368=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E366) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B368" s="138"/>
       <c r="C368" s="138"/>
       <c r="D368" s="139"/>
-      <c r="E368" s="168"/>
+      <c r="E368" s="143"/>
       <c r="F368" s="140" t="s">
         <v>18</v>
       </c>
@@ -65252,14 +65260,14 @@
       <c r="I368" s="141"/>
     </row>
     <row r="369" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A369" s="167" t="str">
+      <c r="A369" s="142" t="str">
         <f>IF(AND(E369=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E367) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B369" s="138"/>
       <c r="C369" s="138"/>
       <c r="D369" s="139"/>
-      <c r="E369" s="168"/>
+      <c r="E369" s="143"/>
       <c r="F369" s="140" t="s">
         <v>18</v>
       </c>
@@ -65271,14 +65279,14 @@
       <c r="I369" s="141"/>
     </row>
     <row r="370" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A370" s="167" t="str">
+      <c r="A370" s="142" t="str">
         <f>IF(AND(E370=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E368) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B370" s="138"/>
       <c r="C370" s="138"/>
       <c r="D370" s="139"/>
-      <c r="E370" s="168"/>
+      <c r="E370" s="143"/>
       <c r="F370" s="140" t="s">
         <v>18</v>
       </c>
@@ -65290,14 +65298,14 @@
       <c r="I370" s="141"/>
     </row>
     <row r="371" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A371" s="167" t="str">
+      <c r="A371" s="142" t="str">
         <f>IF(AND(E371=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E369) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B371" s="138"/>
       <c r="C371" s="138"/>
       <c r="D371" s="139"/>
-      <c r="E371" s="168"/>
+      <c r="E371" s="143"/>
       <c r="F371" s="140" t="s">
         <v>18</v>
       </c>
@@ -65309,14 +65317,14 @@
       <c r="I371" s="141"/>
     </row>
     <row r="372" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A372" s="167" t="str">
+      <c r="A372" s="142" t="str">
         <f>IF(AND(E372=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E370) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B372" s="138"/>
       <c r="C372" s="138"/>
       <c r="D372" s="139"/>
-      <c r="E372" s="168"/>
+      <c r="E372" s="143"/>
       <c r="F372" s="140" t="s">
         <v>18</v>
       </c>
@@ -65328,14 +65336,14 @@
       <c r="I372" s="141"/>
     </row>
     <row r="373" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A373" s="167" t="str">
+      <c r="A373" s="142" t="str">
         <f>IF(AND(E373=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E371) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B373" s="138"/>
       <c r="C373" s="138"/>
       <c r="D373" s="139"/>
-      <c r="E373" s="168"/>
+      <c r="E373" s="143"/>
       <c r="F373" s="140" t="s">
         <v>18</v>
       </c>
@@ -65347,14 +65355,14 @@
       <c r="I373" s="141"/>
     </row>
     <row r="374" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A374" s="167" t="str">
+      <c r="A374" s="142" t="str">
         <f>IF(AND(E374=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E372) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B374" s="138"/>
       <c r="C374" s="138"/>
       <c r="D374" s="139"/>
-      <c r="E374" s="168"/>
+      <c r="E374" s="143"/>
       <c r="F374" s="140" t="s">
         <v>18</v>
       </c>
@@ -65366,14 +65374,14 @@
       <c r="I374" s="141"/>
     </row>
     <row r="375" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A375" s="167" t="str">
+      <c r="A375" s="142" t="str">
         <f>IF(AND(E375=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E373) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B375" s="138"/>
       <c r="C375" s="138"/>
       <c r="D375" s="139"/>
-      <c r="E375" s="168"/>
+      <c r="E375" s="143"/>
       <c r="F375" s="140" t="s">
         <v>18</v>
       </c>
@@ -65385,14 +65393,14 @@
       <c r="I375" s="141"/>
     </row>
     <row r="376" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A376" s="167" t="str">
+      <c r="A376" s="142" t="str">
         <f>IF(AND(E376=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E374) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B376" s="138"/>
       <c r="C376" s="138"/>
       <c r="D376" s="139"/>
-      <c r="E376" s="168"/>
+      <c r="E376" s="143"/>
       <c r="F376" s="140" t="s">
         <v>18</v>
       </c>
@@ -65404,14 +65412,14 @@
       <c r="I376" s="141"/>
     </row>
     <row r="377" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A377" s="167" t="str">
+      <c r="A377" s="142" t="str">
         <f>IF(AND(E377=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E375) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B377" s="138"/>
       <c r="C377" s="138"/>
       <c r="D377" s="139"/>
-      <c r="E377" s="168"/>
+      <c r="E377" s="143"/>
       <c r="F377" s="140" t="s">
         <v>18</v>
       </c>
@@ -65423,14 +65431,14 @@
       <c r="I377" s="141"/>
     </row>
     <row r="378" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A378" s="167" t="str">
+      <c r="A378" s="142" t="str">
         <f>IF(AND(E378=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E376) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B378" s="138"/>
       <c r="C378" s="138"/>
       <c r="D378" s="139"/>
-      <c r="E378" s="168"/>
+      <c r="E378" s="143"/>
       <c r="F378" s="140" t="s">
         <v>18</v>
       </c>
@@ -65442,14 +65450,14 @@
       <c r="I378" s="141"/>
     </row>
     <row r="379" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A379" s="167" t="str">
+      <c r="A379" s="142" t="str">
         <f>IF(AND(E379=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E377) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B379" s="138"/>
       <c r="C379" s="138"/>
       <c r="D379" s="139"/>
-      <c r="E379" s="168"/>
+      <c r="E379" s="143"/>
       <c r="F379" s="140" t="s">
         <v>18</v>
       </c>
@@ -65461,14 +65469,14 @@
       <c r="I379" s="141"/>
     </row>
     <row r="380" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A380" s="167" t="str">
+      <c r="A380" s="142" t="str">
         <f>IF(AND(E380=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E378) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B380" s="138"/>
       <c r="C380" s="138"/>
       <c r="D380" s="139"/>
-      <c r="E380" s="168"/>
+      <c r="E380" s="143"/>
       <c r="F380" s="140" t="s">
         <v>18</v>
       </c>
@@ -65480,14 +65488,14 @@
       <c r="I380" s="141"/>
     </row>
     <row r="381" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A381" s="167" t="str">
+      <c r="A381" s="142" t="str">
         <f>IF(AND(E381=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E379) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B381" s="138"/>
       <c r="C381" s="138"/>
       <c r="D381" s="139"/>
-      <c r="E381" s="168"/>
+      <c r="E381" s="143"/>
       <c r="F381" s="140" t="s">
         <v>18</v>
       </c>
@@ -65499,14 +65507,14 @@
       <c r="I381" s="141"/>
     </row>
     <row r="382" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A382" s="167" t="str">
+      <c r="A382" s="142" t="str">
         <f>IF(AND(E382=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E380) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B382" s="138"/>
       <c r="C382" s="138"/>
       <c r="D382" s="139"/>
-      <c r="E382" s="168"/>
+      <c r="E382" s="143"/>
       <c r="F382" s="140" t="s">
         <v>18</v>
       </c>
@@ -65518,14 +65526,14 @@
       <c r="I382" s="141"/>
     </row>
     <row r="383" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A383" s="167" t="str">
+      <c r="A383" s="142" t="str">
         <f>IF(AND(E383=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E381) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B383" s="138"/>
       <c r="C383" s="138"/>
       <c r="D383" s="139"/>
-      <c r="E383" s="168"/>
+      <c r="E383" s="143"/>
       <c r="F383" s="140" t="s">
         <v>18</v>
       </c>
@@ -65537,14 +65545,14 @@
       <c r="I383" s="141"/>
     </row>
     <row r="384" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A384" s="167" t="str">
+      <c r="A384" s="142" t="str">
         <f>IF(AND(E384=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E382) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B384" s="138"/>
       <c r="C384" s="138"/>
       <c r="D384" s="139"/>
-      <c r="E384" s="168"/>
+      <c r="E384" s="143"/>
       <c r="F384" s="140" t="s">
         <v>18</v>
       </c>
@@ -65556,14 +65564,14 @@
       <c r="I384" s="141"/>
     </row>
     <row r="385" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A385" s="167" t="str">
+      <c r="A385" s="142" t="str">
         <f>IF(AND(E385=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E383) +1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B385" s="138"/>
       <c r="C385" s="138"/>
       <c r="D385" s="139"/>
-      <c r="E385" s="168"/>
+      <c r="E385" s="143"/>
       <c r="F385" s="140" t="s">
         <v>18</v>
       </c>

--- a/Testcase_eazysell.xlsx
+++ b/Testcase_eazysell.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="75">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -233,49 +233,7 @@
     <t>Eazysell</t>
   </si>
   <si>
-    <t>Đăng nhập thành công vào phần mềm</t>
-  </si>
-  <si>
-    <t>Đăng nhập thành công vào phần mềm với tài khoản được chỉ định</t>
-  </si>
-  <si>
-    <t>Đăng nhập thành công vô tài khoản</t>
-  </si>
-  <si>
     <t>1.1.1 Chức năng đăng nhập</t>
-  </si>
-  <si>
-    <t>Đăng nhập với tài khoản sai</t>
-  </si>
-  <si>
-    <t>Không thể đăng nhập với tài khoản sai</t>
-  </si>
-  <si>
-    <t>1.Mở website:http://bachhoa.test:8080/
-2.Nhập tên đăng nhập: admin
-3.Nhập mật khẩu:12345678
-4. Nhấn nút đăng nhập</t>
-  </si>
-  <si>
-    <t>1.Mở website: http://bachhoa.test:8080/
-2.Nhập tên đăng nhập: test
-3.Nhập mật khẩu:12345678
-4. Nhấn nút đăng nhập</t>
-  </si>
-  <si>
-    <t>Không đăng nhập thành công và hiển thị thông báo sai mật khẩu hoặc sai tên đăng nhập</t>
-  </si>
-  <si>
-    <t>Đăng nhập với mật khẩu ít hơn 8 ký tự</t>
-  </si>
-  <si>
-    <t>Đăng nhập vào tài khoản với mật khẩu ít hơn 8 ký tự</t>
-  </si>
-  <si>
-    <t>1.Mở website: http://bachhoa.test:8080/
-2.Nhập tên đăng nhập: test
-3.Nhập mật khẩu:123
-4. Nhấn nút đăng nhập</t>
   </si>
   <si>
     <t>Không đăng nhập thành công và hiển thị thông báo mật khẩu phải có ít nhất 8 ký tự</t>
@@ -291,6 +249,54 @@
 2.Nhấn đăng ký
 3.Nhập mật khẩu:123
 4. Nhấn nút đăng nhập</t>
+  </si>
+  <si>
+    <t>Thông báo đăng ký tài khoản thành công</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu</t>
+  </si>
+  <si>
+    <t>Login was successful in the software</t>
+  </si>
+  <si>
+    <t>Login was successful in the software with a valid account</t>
+  </si>
+  <si>
+    <t>1.Open website:http://bachhoa.test:8080/
+2.Input username: admin
+3.Input password:12345678
+4. Click on login button</t>
+  </si>
+  <si>
+    <t>Login with wrong account</t>
+  </si>
+  <si>
+    <t>Cannot login with the wrong account</t>
+  </si>
+  <si>
+    <t>1.Open website:http://bachhoa.test:8080/
+2.Input username: abc
+3.Input password:12345678
+4. Click on login button</t>
+  </si>
+  <si>
+    <t>Login successfully</t>
+  </si>
+  <si>
+    <t>Login denied with a notification:"Cannot log in because the username or password incorrect'</t>
+  </si>
+  <si>
+    <t>Login with a password that has a lenghth less than 8 characters</t>
+  </si>
+  <si>
+    <t>Input a password that has a length less than 8 characters</t>
+  </si>
+  <si>
+    <t>1.Open website:http://bachhoa.test:8080/
+2.Input username: admin
+3.Input password:abc12
+4. Click on login button</t>
   </si>
 </sst>
 </file>
@@ -30043,7 +30049,7 @@
       <c r="F5" s="146"/>
       <c r="G5" s="158">
         <f ca="1">NOW()</f>
-        <v>45227.374748263886</v>
+        <v>45233.383203472222</v>
       </c>
       <c r="H5" s="159"/>
       <c r="I5" s="26"/>
@@ -58033,8 +58039,8 @@
   </sheetPr>
   <dimension ref="A1:Z856"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -58372,7 +58378,7 @@
     <row r="10" spans="1:26">
       <c r="A10" s="132"/>
       <c r="B10" s="133" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="134"/>
       <c r="D10" s="133"/>
@@ -58405,16 +58411,16 @@
         <v>[Eazysell-2]</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D11" s="139" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E11" s="143" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F11" s="140" t="s">
         <v>18</v>
@@ -58449,16 +58455,16 @@
         <v>[Eazysell-2]</v>
       </c>
       <c r="B12" s="138" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C12" s="138" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D12" s="139" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" s="143" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F12" s="140" t="s">
         <v>18</v>
@@ -58476,16 +58482,16 @@
         <v>[Eazysell-3]</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C13" s="138" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D13" s="139" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E13" s="143" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F13" s="140" t="s">
         <v>18</v>
@@ -58500,7 +58506,7 @@
     <row r="14" spans="1:26">
       <c r="A14" s="132"/>
       <c r="B14" s="133" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C14" s="134"/>
       <c r="D14" s="133"/>
@@ -58530,18 +58536,20 @@
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="142" t="str">
         <f>IF(AND(E15=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E13) +1,"##")&amp;"]")</f>
-        <v/>
+        <v>[Eazysell-5]</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C15" s="138" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D15" s="139" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="143"/>
+        <v>61</v>
+      </c>
+      <c r="E15" s="143" t="s">
+        <v>62</v>
+      </c>
       <c r="F15" s="140" t="s">
         <v>18</v>
       </c>
@@ -58557,7 +58565,9 @@
         <f>IF(AND(E16=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9- COUNTBLANK($E$8:E14) +1,"##")&amp;"]")</f>
         <v/>
       </c>
-      <c r="B16" s="138"/>
+      <c r="B16" s="138" t="s">
+        <v>63</v>
+      </c>
       <c r="C16" s="138"/>
       <c r="D16" s="139"/>
       <c r="E16" s="143"/>
